--- a/VT_EREG1_ELC_V12.xlsx
+++ b/VT_EREG1_ELC_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\ETSAP-Webinar\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A411AD6F-BA02-4892-AE37-E305CF0CB19F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E9CF43-574E-44C2-8F57-30EE0CA61DE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="901" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -41,14 +41,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P15" authorId="2" shapeId="0">
+    <comment ref="P15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -440,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="1" shapeId="0">
+    <comment ref="Q15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -465,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="2" shapeId="0">
+    <comment ref="R15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -528,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -776,14 +776,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="X3" authorId="0" shapeId="0">
+    <comment ref="X3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -897,7 +897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC3" authorId="1" shapeId="0">
+    <comment ref="AC3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -923,7 +923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD3" authorId="2" shapeId="0">
+    <comment ref="AD3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -996,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="2" shapeId="0">
+    <comment ref="AE3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF3" authorId="2" shapeId="0">
+    <comment ref="AF3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1082,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD9" authorId="2" shapeId="0">
+    <comment ref="AD9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1175,7 +1175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE9" authorId="1" shapeId="0">
+    <comment ref="AE9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF9" authorId="2" shapeId="0">
+    <comment ref="AF9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1263,7 +1263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X10" authorId="2" shapeId="0">
+    <comment ref="X10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1924,9 +1924,6 @@
     <t>Naphtha</t>
   </si>
   <si>
-    <t>Diesel oil</t>
-  </si>
-  <si>
     <t>~COMEMI</t>
   </si>
   <si>
@@ -2030,21 +2027,24 @@
   </si>
   <si>
     <t>~FI_T: Stock~2000</t>
+  </si>
+  <si>
+    <t>Diesel Oil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="188" formatCode="0.0"/>
-    <numFmt numFmtId="190" formatCode="0.0000"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2074,32 +2074,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2595,34 +2569,34 @@
   </borders>
   <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
@@ -2644,18 +2618,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2664,11 +2638,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9"/>
@@ -2682,69 +2656,69 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="22" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="22" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="20" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2753,23 +2727,23 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="16" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
@@ -2778,89 +2752,89 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2869,32 +2843,32 @@
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 4 2" xfId="12"/>
-    <cellStyle name="Normal 8" xfId="13"/>
-    <cellStyle name="Normal 9 2" xfId="14"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="17"/>
-    <cellStyle name="Percent 3" xfId="18"/>
-    <cellStyle name="Percent 3 2" xfId="19"/>
-    <cellStyle name="Percent 3 3" xfId="20"/>
-    <cellStyle name="Percent 3 4" xfId="21"/>
-    <cellStyle name="Percent 4" xfId="22"/>
-    <cellStyle name="Percent 4 2" xfId="23"/>
-    <cellStyle name="Percent 4 3" xfId="24"/>
-    <cellStyle name="Percent 4 4" xfId="25"/>
-    <cellStyle name="Percent 5" xfId="26"/>
-    <cellStyle name="Percent 6" xfId="27"/>
-    <cellStyle name="Percent 7" xfId="28"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="29"/>
+    <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 3 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 4 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 4 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 7" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4353,13 +4327,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4428,16 +4404,16 @@
         <v>45</v>
       </c>
       <c r="O2" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="P2" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q2" s="48" t="s">
+      <c r="R2" s="48" t="s">
         <v>156</v>
-      </c>
-      <c r="R2" s="48" t="s">
-        <v>157</v>
       </c>
       <c r="S2" s="48" t="s">
         <v>46</v>
@@ -4449,11 +4425,11 @@
         <v>48</v>
       </c>
       <c r="V2" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X2" s="8"/>
       <c r="Y2" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z2" s="14" t="s">
         <v>68</v>
@@ -4476,7 +4452,7 @@
         <v>124</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="H3" s="49" t="s">
         <v>134</v>
@@ -4500,16 +4476,16 @@
         <v>51</v>
       </c>
       <c r="O3" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P3" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="R3" s="49" t="s">
         <v>153</v>
-      </c>
-      <c r="R3" s="49" t="s">
-        <v>154</v>
       </c>
       <c r="S3" s="49" t="s">
         <v>52</v>
@@ -5003,7 +4979,7 @@
     <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="C12" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -5070,7 +5046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
@@ -5089,14 +5065,14 @@
     </row>
     <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="4" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="E4" s="120" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="121"/>
       <c r="G4" s="121"/>
@@ -5109,7 +5085,7 @@
     </row>
     <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" s="79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
@@ -5131,10 +5107,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5529,7 +5507,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="80" t="s">
         <v>123</v>
@@ -5579,7 +5557,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>34</v>
@@ -5588,7 +5566,7 @@
         <v>75</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J16" s="110" t="s">
         <v>36</v>
@@ -6042,13 +6020,13 @@
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="52"/>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="68"/>
       <c r="C33" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6060,10 +6038,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AF65536"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -6195,7 +6173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:32" s="26" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" s="26" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
         <v>107</v>
       </c>
@@ -6328,7 +6306,7 @@
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D8" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -6366,37 +6344,37 @@
         <v>6</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>164</v>
-      </c>
       <c r="G9" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="I9" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="J9" s="80" t="s">
         <v>169</v>
-      </c>
-      <c r="J9" s="80" t="s">
-        <v>170</v>
       </c>
       <c r="K9" s="80">
         <v>2030</v>
       </c>
       <c r="L9" s="80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M9" s="80" t="s">
         <v>73</v>
       </c>
       <c r="N9" s="80" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P9" s="80" t="s">
         <v>72</v>
@@ -6408,7 +6386,7 @@
         <v>70</v>
       </c>
       <c r="S9" s="80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T9" s="80" t="s">
         <v>118</v>
@@ -6457,10 +6435,10 @@
         <v>33</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -6477,7 +6455,7 @@
         <v>82</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P10" s="19" t="s">
         <v>81</v>
@@ -6486,7 +6464,7 @@
         <v>105</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S10" s="19" t="s">
         <v>106</v>
@@ -7266,14 +7244,14 @@
     <row r="23" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B23" s="52"/>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V23" s="97"/>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B24" s="68"/>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V24" s="97"/>
     </row>
@@ -7333,7 +7311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7345,7 +7323,7 @@
   <sheetData>
     <row r="3" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -7366,7 +7344,7 @@
     </row>
     <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="41"/>
       <c r="F5" s="31"/>
@@ -7397,13 +7375,13 @@
         <v>76</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="88"/>
       <c r="G7" s="88"/>
@@ -7438,13 +7416,13 @@
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="52"/>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="68"/>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/VT_EREG1_ELC_V12.xlsx
+++ b/VT_EREG1_ELC_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A411AD6F-BA02-4892-AE37-E305CF0CB19F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A3FFCC-52A4-4EF4-B864-4D7ECDD208F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="901" activeTab="3"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12735" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -21,7 +21,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -41,14 +40,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P15" authorId="2" shapeId="0">
+    <comment ref="P15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -440,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="1" shapeId="0">
+    <comment ref="Q15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -465,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="2" shapeId="0">
+    <comment ref="R15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -528,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -776,14 +775,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="X3" authorId="0" shapeId="0">
+    <comment ref="X3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -897,7 +896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC3" authorId="1" shapeId="0">
+    <comment ref="AC3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -923,7 +922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD3" authorId="2" shapeId="0">
+    <comment ref="AD3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -996,7 +995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="2" shapeId="0">
+    <comment ref="AE3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF3" authorId="2" shapeId="0">
+    <comment ref="AF3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1082,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD9" authorId="2" shapeId="0">
+    <comment ref="AD9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1175,7 +1174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE9" authorId="1" shapeId="0">
+    <comment ref="AE9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF9" authorId="2" shapeId="0">
+    <comment ref="AF9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1263,7 +1262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X10" authorId="2" shapeId="0">
+    <comment ref="X10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2035,16 +2034,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="188" formatCode="0.0"/>
-    <numFmt numFmtId="190" formatCode="0.0000"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2074,32 +2073,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2595,34 +2568,34 @@
   </borders>
   <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
@@ -2644,18 +2617,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2664,11 +2637,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9"/>
@@ -2682,69 +2655,69 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="22" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="22" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="20" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="16" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2753,23 +2726,23 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="16" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
@@ -2778,89 +2751,89 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2869,32 +2842,32 @@
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 4 2" xfId="12"/>
-    <cellStyle name="Normal 8" xfId="13"/>
-    <cellStyle name="Normal 9 2" xfId="14"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="17"/>
-    <cellStyle name="Percent 3" xfId="18"/>
-    <cellStyle name="Percent 3 2" xfId="19"/>
-    <cellStyle name="Percent 3 3" xfId="20"/>
-    <cellStyle name="Percent 3 4" xfId="21"/>
-    <cellStyle name="Percent 4" xfId="22"/>
-    <cellStyle name="Percent 4 2" xfId="23"/>
-    <cellStyle name="Percent 4 3" xfId="24"/>
-    <cellStyle name="Percent 4 4" xfId="25"/>
-    <cellStyle name="Percent 5" xfId="26"/>
-    <cellStyle name="Percent 6" xfId="27"/>
-    <cellStyle name="Percent 7" xfId="28"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="29"/>
+    <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 3 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 4 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 4 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 7" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3750,262 +3723,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="EnergyBalance"/>
-      <sheetName val="EB1"/>
-      <sheetName val="EB2"/>
-      <sheetName val="RES&amp;OBJ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="10">
-          <cell r="D10">
-            <v>-37.464700000000001</v>
-          </cell>
-          <cell r="E10">
-            <v>-317.19200000000001</v>
-          </cell>
-          <cell r="F10">
-            <v>0</v>
-          </cell>
-          <cell r="G10">
-            <v>-16.283999999999999</v>
-          </cell>
-          <cell r="H10">
-            <v>-2.1499999999999998E-2</v>
-          </cell>
-          <cell r="I10">
-            <v>-528.76099999999997</v>
-          </cell>
-          <cell r="J10">
-            <v>-164.50800000000001</v>
-          </cell>
-          <cell r="K10">
-            <v>-0.61599999999999999</v>
-          </cell>
-          <cell r="L10">
-            <v>-205.88</v>
-          </cell>
-          <cell r="M10">
-            <v>0</v>
-          </cell>
-          <cell r="N10">
-            <v>0</v>
-          </cell>
-          <cell r="O10">
-            <v>-3.21225</v>
-          </cell>
-          <cell r="P10">
-            <v>0</v>
-          </cell>
-          <cell r="Q10">
-            <v>0</v>
-          </cell>
-          <cell r="R10">
-            <v>0</v>
-          </cell>
-          <cell r="S10">
-            <v>-0.76</v>
-          </cell>
-          <cell r="T10">
-            <v>0</v>
-          </cell>
-          <cell r="U10">
-            <v>0</v>
-          </cell>
-          <cell r="V10">
-            <v>-1274.6994499999998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>-6238.7780000000012</v>
-          </cell>
-          <cell r="E11">
-            <v>-2254.2175999999999</v>
-          </cell>
-          <cell r="F11">
-            <v>0</v>
-          </cell>
-          <cell r="G11">
-            <v>-30.160499999999999</v>
-          </cell>
-          <cell r="H11">
-            <v>0</v>
-          </cell>
-          <cell r="I11">
-            <v>-23.835000000000001</v>
-          </cell>
-          <cell r="J11">
-            <v>0</v>
-          </cell>
-          <cell r="K11">
-            <v>0</v>
-          </cell>
-          <cell r="L11">
-            <v>-524.78</v>
-          </cell>
-          <cell r="M11">
-            <v>-33.529000000000003</v>
-          </cell>
-          <cell r="N11">
-            <v>-4455</v>
-          </cell>
-          <cell r="O11">
-            <v>-527.25918750000005</v>
-          </cell>
-          <cell r="P11">
-            <v>-502.66000000000008</v>
-          </cell>
-          <cell r="Q11">
-            <v>-263.8965</v>
-          </cell>
-          <cell r="R11">
-            <v>-68</v>
-          </cell>
-          <cell r="S11">
-            <v>-16.474499999999999</v>
-          </cell>
-          <cell r="T11">
-            <v>868.77949999999998</v>
-          </cell>
-          <cell r="U11">
-            <v>5790.5</v>
-          </cell>
-          <cell r="V11">
-            <v>-8279.3107875000023</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>-104.9074</v>
-          </cell>
-          <cell r="E12">
-            <v>-120.5204</v>
-          </cell>
-          <cell r="F12">
-            <v>0</v>
-          </cell>
-          <cell r="G12">
-            <v>-7.6189999999999998</v>
-          </cell>
-          <cell r="H12">
-            <v>0</v>
-          </cell>
-          <cell r="I12">
-            <v>-0.23350000000000001</v>
-          </cell>
-          <cell r="J12">
-            <v>0</v>
-          </cell>
-          <cell r="K12">
-            <v>0</v>
-          </cell>
-          <cell r="L12">
-            <v>-15.2</v>
-          </cell>
-          <cell r="M12">
-            <v>-1.772</v>
-          </cell>
-          <cell r="N12">
-            <v>0</v>
-          </cell>
-          <cell r="O12">
-            <v>-105.15525</v>
-          </cell>
-          <cell r="P12">
-            <v>0</v>
-          </cell>
-          <cell r="Q12">
-            <v>0</v>
-          </cell>
-          <cell r="R12">
-            <v>0</v>
-          </cell>
-          <cell r="S12">
-            <v>-0.78449999999999998</v>
-          </cell>
-          <cell r="T12">
-            <v>329.37150000000003</v>
-          </cell>
-          <cell r="U12">
-            <v>0</v>
-          </cell>
-          <cell r="V12">
-            <v>-26.820549999999912</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-          <cell r="E13">
-            <v>0</v>
-          </cell>
-          <cell r="F13">
-            <v>-15868.2305</v>
-          </cell>
-          <cell r="G13">
-            <v>5701.34</v>
-          </cell>
-          <cell r="H13">
-            <v>969.47799999999995</v>
-          </cell>
-          <cell r="I13">
-            <v>1086.3040000000001</v>
-          </cell>
-          <cell r="J13">
-            <v>3354.9119999999998</v>
-          </cell>
-          <cell r="K13">
-            <v>970.28800000000001</v>
-          </cell>
-          <cell r="L13">
-            <v>2285.1019999999999</v>
-          </cell>
-          <cell r="M13">
-            <v>1299.9449999999999</v>
-          </cell>
-          <cell r="N13">
-            <v>0</v>
-          </cell>
-          <cell r="O13">
-            <v>0</v>
-          </cell>
-          <cell r="P13">
-            <v>0</v>
-          </cell>
-          <cell r="Q13">
-            <v>0</v>
-          </cell>
-          <cell r="R13">
-            <v>0</v>
-          </cell>
-          <cell r="S13">
-            <v>0</v>
-          </cell>
-          <cell r="T13">
-            <v>0</v>
-          </cell>
-          <cell r="U13">
-            <v>0</v>
-          </cell>
-          <cell r="V13">
-            <v>-200.86150000000021</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4353,7 +4070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4558,79 +4275,60 @@
         <v>57</v>
       </c>
       <c r="D5" s="51">
-        <f>[2]EB1!D10</f>
         <v>-37.464700000000001</v>
       </c>
       <c r="E5" s="51">
-        <f>[2]EB1!E10</f>
         <v>-317.19200000000001</v>
       </c>
       <c r="F5" s="51">
-        <f>[2]EB1!F10</f>
         <v>0</v>
       </c>
       <c r="G5" s="51">
-        <f>[2]EB1!G10</f>
         <v>-16.283999999999999</v>
       </c>
       <c r="H5" s="51">
-        <f>[2]EB1!H10</f>
         <v>-2.1499999999999998E-2</v>
       </c>
       <c r="I5" s="51">
-        <f>[2]EB1!I10</f>
         <v>-528.76099999999997</v>
       </c>
       <c r="J5" s="51">
-        <f>[2]EB1!J10</f>
         <v>-164.50800000000001</v>
       </c>
       <c r="K5" s="51">
-        <f>[2]EB1!K10</f>
         <v>-0.61599999999999999</v>
       </c>
       <c r="L5" s="51">
-        <f>[2]EB1!L10</f>
         <v>-205.88</v>
       </c>
       <c r="M5" s="51">
-        <f>[2]EB1!M10</f>
         <v>0</v>
       </c>
       <c r="N5" s="51">
-        <f>[2]EB1!N10</f>
         <v>0</v>
       </c>
       <c r="O5" s="51">
-        <f>[2]EB1!O10</f>
         <v>-3.21225</v>
       </c>
       <c r="P5" s="51">
-        <f>[2]EB1!P10</f>
         <v>0</v>
       </c>
       <c r="Q5" s="51">
-        <f>[2]EB1!Q10</f>
         <v>0</v>
       </c>
       <c r="R5" s="51">
-        <f>[2]EB1!R10</f>
         <v>0</v>
       </c>
       <c r="S5" s="51">
-        <f>[2]EB1!S10</f>
         <v>-0.76</v>
       </c>
       <c r="T5" s="51">
-        <f>[2]EB1!T10</f>
         <v>0</v>
       </c>
       <c r="U5" s="51">
-        <f>[2]EB1!U10</f>
         <v>0</v>
       </c>
       <c r="V5" s="85">
-        <f>[2]EB1!V10</f>
         <v>-1274.6994499999998</v>
       </c>
       <c r="X5" s="6"/>
@@ -4643,79 +4341,60 @@
         <v>58</v>
       </c>
       <c r="D6" s="54">
-        <f>[2]EB1!D11</f>
         <v>-6238.7780000000012</v>
       </c>
       <c r="E6" s="53">
-        <f>[2]EB1!E11</f>
         <v>-2254.2175999999999</v>
       </c>
       <c r="F6" s="53">
-        <f>[2]EB1!F11</f>
         <v>0</v>
       </c>
       <c r="G6" s="53">
-        <f>[2]EB1!G11</f>
         <v>-30.160499999999999</v>
       </c>
       <c r="H6" s="53">
-        <f>[2]EB1!H11</f>
         <v>0</v>
       </c>
       <c r="I6" s="53">
-        <f>[2]EB1!I11</f>
         <v>-23.835000000000001</v>
       </c>
       <c r="J6" s="53">
-        <f>[2]EB1!J11</f>
         <v>0</v>
       </c>
       <c r="K6" s="53">
-        <f>[2]EB1!K11</f>
         <v>0</v>
       </c>
       <c r="L6" s="53">
-        <f>[2]EB1!L11</f>
         <v>-524.78</v>
       </c>
       <c r="M6" s="53">
-        <f>[2]EB1!M11</f>
         <v>-33.529000000000003</v>
       </c>
       <c r="N6" s="53">
-        <f>[2]EB1!N11</f>
         <v>-4455</v>
       </c>
       <c r="O6" s="53">
-        <f>[2]EB1!O11</f>
         <v>-527.25918750000005</v>
       </c>
       <c r="P6" s="53">
-        <f>[2]EB1!P11</f>
         <v>-502.66000000000008</v>
       </c>
       <c r="Q6" s="53">
-        <f>[2]EB1!Q11</f>
         <v>-263.8965</v>
       </c>
       <c r="R6" s="53">
-        <f>[2]EB1!R11</f>
         <v>-68</v>
       </c>
       <c r="S6" s="51">
-        <f>[2]EB1!S11</f>
         <v>-16.474499999999999</v>
       </c>
       <c r="T6" s="51">
-        <f>[2]EB1!T11</f>
         <v>868.77949999999998</v>
       </c>
       <c r="U6" s="53">
-        <f>[2]EB1!U11</f>
         <v>5790.5</v>
       </c>
       <c r="V6" s="85">
-        <f>[2]EB1!V11</f>
         <v>-8279.3107875000023</v>
       </c>
       <c r="X6" s="95"/>
@@ -4728,79 +4407,60 @@
         <v>60</v>
       </c>
       <c r="D7" s="51">
-        <f>[2]EB1!D12</f>
         <v>-104.9074</v>
       </c>
       <c r="E7" s="51">
-        <f>[2]EB1!E12</f>
         <v>-120.5204</v>
       </c>
       <c r="F7" s="51">
-        <f>[2]EB1!F12</f>
         <v>0</v>
       </c>
       <c r="G7" s="51">
-        <f>[2]EB1!G12</f>
         <v>-7.6189999999999998</v>
       </c>
       <c r="H7" s="51">
-        <f>[2]EB1!H12</f>
         <v>0</v>
       </c>
       <c r="I7" s="51">
-        <f>[2]EB1!I12</f>
         <v>-0.23350000000000001</v>
       </c>
       <c r="J7" s="51">
-        <f>[2]EB1!J12</f>
         <v>0</v>
       </c>
       <c r="K7" s="51">
-        <f>[2]EB1!K12</f>
         <v>0</v>
       </c>
       <c r="L7" s="51">
-        <f>[2]EB1!L12</f>
         <v>-15.2</v>
       </c>
       <c r="M7" s="51">
-        <f>[2]EB1!M12</f>
         <v>-1.772</v>
       </c>
       <c r="N7" s="51">
-        <f>[2]EB1!N12</f>
         <v>0</v>
       </c>
       <c r="O7" s="51">
-        <f>[2]EB1!O12</f>
         <v>-105.15525</v>
       </c>
       <c r="P7" s="51">
-        <f>[2]EB1!P12</f>
         <v>0</v>
       </c>
       <c r="Q7" s="51">
-        <f>[2]EB1!Q12</f>
         <v>0</v>
       </c>
       <c r="R7" s="51">
-        <f>[2]EB1!R12</f>
         <v>0</v>
       </c>
       <c r="S7" s="51">
-        <f>[2]EB1!S12</f>
         <v>-0.78449999999999998</v>
       </c>
       <c r="T7" s="51">
-        <f>[2]EB1!T12</f>
         <v>329.37150000000003</v>
       </c>
       <c r="U7" s="51">
-        <f>[2]EB1!U12</f>
         <v>0</v>
       </c>
       <c r="V7" s="85">
-        <f>[2]EB1!V12</f>
         <v>-26.820549999999912</v>
       </c>
       <c r="X7" s="6"/>
@@ -4813,79 +4473,60 @@
         <v>62</v>
       </c>
       <c r="D8" s="74">
-        <f>[2]EB1!D13</f>
         <v>0</v>
       </c>
       <c r="E8" s="51">
-        <f>[2]EB1!E13</f>
         <v>0</v>
       </c>
       <c r="F8" s="51">
-        <f>[2]EB1!F13</f>
         <v>-15868.2305</v>
       </c>
       <c r="G8" s="51">
-        <f>[2]EB1!G13</f>
         <v>5701.34</v>
       </c>
       <c r="H8" s="51">
-        <f>[2]EB1!H13</f>
         <v>969.47799999999995</v>
       </c>
       <c r="I8" s="51">
-        <f>[2]EB1!I13</f>
         <v>1086.3040000000001</v>
       </c>
       <c r="J8" s="51">
-        <f>[2]EB1!J13</f>
         <v>3354.9119999999998</v>
       </c>
       <c r="K8" s="51">
-        <f>[2]EB1!K13</f>
         <v>970.28800000000001</v>
       </c>
       <c r="L8" s="51">
-        <f>[2]EB1!L13</f>
         <v>2285.1019999999999</v>
       </c>
       <c r="M8" s="51">
-        <f>[2]EB1!M13</f>
         <v>1299.9449999999999</v>
       </c>
       <c r="N8" s="51">
-        <f>[2]EB1!N13</f>
         <v>0</v>
       </c>
       <c r="O8" s="51">
-        <f>[2]EB1!O13</f>
         <v>0</v>
       </c>
       <c r="P8" s="51">
-        <f>[2]EB1!P13</f>
         <v>0</v>
       </c>
       <c r="Q8" s="51">
-        <f>[2]EB1!Q13</f>
         <v>0</v>
       </c>
       <c r="R8" s="51">
-        <f>[2]EB1!R13</f>
         <v>0</v>
       </c>
       <c r="S8" s="51">
-        <f>[2]EB1!S13</f>
         <v>0</v>
       </c>
       <c r="T8" s="51">
-        <f>[2]EB1!T13</f>
         <v>0</v>
       </c>
       <c r="U8" s="51">
-        <f>[2]EB1!U13</f>
         <v>0</v>
       </c>
       <c r="V8" s="85">
-        <f>[2]EB1!V13</f>
         <v>-200.86150000000021</v>
       </c>
     </row>
@@ -5070,7 +4711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
@@ -5131,7 +4772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
@@ -6060,11 +5701,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AF65536"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6195,7 +5836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:32" s="26" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" s="26" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
         <v>107</v>
       </c>
@@ -7053,7 +6694,7 @@
         <v>2</v>
       </c>
       <c r="R17" s="74">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="S17" s="93">
         <v>31.536000000000001</v>
@@ -7333,7 +6974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VT_EREG1_ELC_V12.xlsx
+++ b/VT_EREG1_ELC_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda_testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A3FFCC-52A4-4EF4-B864-4D7ECDD208F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B7F89-4057-483E-A720-E2FB74C75546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12735" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -1510,7 +1510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="173">
   <si>
     <t>CommName</t>
   </si>
@@ -2598,30 +2598,26 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2645,16 +2641,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2675,19 +2667,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2698,7 +2690,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="18" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="18" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
@@ -2746,8 +2738,7 @@
     <xf numFmtId="9" fontId="4" fillId="16" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2765,8 +2756,8 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2774,21 +2765,17 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2798,11 +2785,8 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2814,18 +2798,14 @@
     <xf numFmtId="169" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3589,7 +3569,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -4074,7 +4054,7 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AA17"/>
+  <dimension ref="B1:AA17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -4095,8 +4075,8 @@
     <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="X1" s="23" t="s">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="X1" s="19" t="s">
         <v>78</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -4109,600 +4089,580 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="7"/>
-      <c r="D2" s="48" t="s">
+    <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="47" t="s">
+      <c r="Y2" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C3" s="67" t="s">
+    <row r="3" spans="2:27" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="R3" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="49" t="s">
+      <c r="T3" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="49" t="s">
+      <c r="U3" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="49" t="s">
+      <c r="V3" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="46"/>
-      <c r="C4" s="83" t="s">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B4" s="38"/>
+      <c r="C4" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="84"/>
-      <c r="X4" s="6"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="50" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="75"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="43">
         <v>-37.464700000000001</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="43">
         <v>-317.19200000000001</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="43">
         <v>0</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="43">
         <v>-16.283999999999999</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="43">
         <v>-2.1499999999999998E-2</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="43">
         <v>-528.76099999999997</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="43">
         <v>-164.50800000000001</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="43">
         <v>-0.61599999999999999</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="43">
         <v>-205.88</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="43">
         <v>0</v>
       </c>
-      <c r="N5" s="51">
+      <c r="N5" s="43">
         <v>0</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="43">
         <v>-3.21225</v>
       </c>
-      <c r="P5" s="51">
+      <c r="P5" s="43">
         <v>0</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="43">
         <v>0</v>
       </c>
-      <c r="R5" s="51">
+      <c r="R5" s="43">
         <v>0</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="43">
         <v>-0.76</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="43">
         <v>0</v>
       </c>
-      <c r="U5" s="51">
+      <c r="U5" s="43">
         <v>0</v>
       </c>
-      <c r="V5" s="85">
+      <c r="V5" s="76">
         <v>-1274.6994499999998</v>
       </c>
-      <c r="X5" s="6"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+    </row>
+    <row r="6" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="46">
         <v>-6238.7780000000012</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="45">
         <v>-2254.2175999999999</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="45">
         <v>0</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="45">
         <v>-30.160499999999999</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="45">
         <v>0</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="45">
         <v>-23.835000000000001</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="45">
         <v>0</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="45">
         <v>0</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="45">
         <v>-524.78</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="45">
         <v>-33.529000000000003</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="45">
         <v>-4455</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="45">
         <v>-527.25918750000005</v>
       </c>
-      <c r="P6" s="53">
+      <c r="P6" s="45">
         <v>-502.66000000000008</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="45">
         <v>-263.8965</v>
       </c>
-      <c r="R6" s="53">
+      <c r="R6" s="45">
         <v>-68</v>
       </c>
-      <c r="S6" s="51">
+      <c r="S6" s="43">
         <v>-16.474499999999999</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="43">
         <v>868.77949999999998</v>
       </c>
-      <c r="U6" s="53">
+      <c r="U6" s="45">
         <v>5790.5</v>
       </c>
-      <c r="V6" s="85">
+      <c r="V6" s="76">
         <v>-8279.3107875000023</v>
       </c>
-      <c r="X6" s="95"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
+      <c r="X6" s="83"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="43">
         <v>-104.9074</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="43">
         <v>-120.5204</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="43">
         <v>0</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="43">
         <v>-7.6189999999999998</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="43">
         <v>0</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="43">
         <v>-0.23350000000000001</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="43">
         <v>0</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="43">
         <v>0</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="43">
         <v>-15.2</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="43">
         <v>-1.772</v>
       </c>
-      <c r="N7" s="51">
+      <c r="N7" s="43">
         <v>0</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="43">
         <v>-105.15525</v>
       </c>
-      <c r="P7" s="51">
+      <c r="P7" s="43">
         <v>0</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="43">
         <v>0</v>
       </c>
-      <c r="R7" s="51">
+      <c r="R7" s="43">
         <v>0</v>
       </c>
-      <c r="S7" s="51">
+      <c r="S7" s="43">
         <v>-0.78449999999999998</v>
       </c>
-      <c r="T7" s="51">
+      <c r="T7" s="43">
         <v>329.37150000000003</v>
       </c>
-      <c r="U7" s="51">
+      <c r="U7" s="43">
         <v>0</v>
       </c>
-      <c r="V7" s="85">
+      <c r="V7" s="76">
         <v>-26.820549999999912</v>
       </c>
-      <c r="X7" s="6"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="50" t="s">
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B8" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="43">
         <v>0</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="43">
         <v>0</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="43">
         <v>-15868.2305</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="43">
         <v>5701.34</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="43">
         <v>969.47799999999995</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="43">
         <v>1086.3040000000001</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="43">
         <v>3354.9119999999998</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="43">
         <v>970.28800000000001</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="43">
         <v>2285.1019999999999</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="43">
         <v>1299.9449999999999</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="43">
         <v>0</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="43">
         <v>0</v>
       </c>
-      <c r="P8" s="51">
+      <c r="P8" s="43">
         <v>0</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="43">
         <v>0</v>
       </c>
-      <c r="R8" s="51">
+      <c r="R8" s="43">
         <v>0</v>
       </c>
-      <c r="S8" s="51">
+      <c r="S8" s="43">
         <v>0</v>
       </c>
-      <c r="T8" s="51">
+      <c r="T8" s="43">
         <v>0</v>
       </c>
-      <c r="U8" s="51">
+      <c r="U8" s="43">
         <v>0</v>
       </c>
-      <c r="V8" s="85">
+      <c r="V8" s="76">
         <v>-200.86150000000021</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="55" t="s">
+    <row r="9" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="50">
         <f>SUM(D5:D8)</f>
         <v>-6381.1501000000017</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="48">
         <f t="shared" ref="E9:U9" si="0">SUM(E5:E8)</f>
         <v>-2691.93</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="48">
         <f t="shared" si="0"/>
         <v>-15868.2305</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="48">
         <f t="shared" si="0"/>
         <v>5647.2764999999999</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="48">
         <f t="shared" si="0"/>
         <v>969.45650000000001</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="48">
         <f t="shared" si="0"/>
         <v>533.47450000000003</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="48">
         <f t="shared" si="0"/>
         <v>3190.404</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="48">
         <f t="shared" si="0"/>
         <v>969.67200000000003</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="48">
         <f t="shared" si="0"/>
         <v>1539.2419999999997</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="48">
         <f t="shared" si="0"/>
         <v>1264.644</v>
       </c>
-      <c r="N9" s="56">
+      <c r="N9" s="48">
         <f t="shared" si="0"/>
         <v>-4455</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="48">
         <f t="shared" si="0"/>
         <v>-635.62668750000012</v>
       </c>
-      <c r="P9" s="56">
+      <c r="P9" s="48">
         <f t="shared" si="0"/>
         <v>-502.66000000000008</v>
       </c>
-      <c r="Q9" s="56">
+      <c r="Q9" s="48">
         <f t="shared" si="0"/>
         <v>-263.8965</v>
       </c>
-      <c r="R9" s="56">
+      <c r="R9" s="48">
         <f t="shared" si="0"/>
         <v>-68</v>
       </c>
-      <c r="S9" s="56">
+      <c r="S9" s="48">
         <f t="shared" si="0"/>
         <v>-18.019000000000002</v>
       </c>
-      <c r="T9" s="56">
+      <c r="T9" s="48">
         <f t="shared" si="0"/>
         <v>1198.1510000000001</v>
       </c>
-      <c r="U9" s="56">
+      <c r="U9" s="48">
         <f t="shared" si="0"/>
         <v>5790.5</v>
       </c>
-      <c r="V9" s="57">
+      <c r="V9" s="49">
         <f>SUM(V5:V8)</f>
         <v>-9781.6922875000037</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="53" t="s">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+    </row>
+    <row r="12" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="C12" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="V14" s="8"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="C15" s="64" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C15" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="V15" s="8"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="23" t="s">
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="V16" s="8"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="81">
         <v>1</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="91"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4725,41 +4685,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E1" s="11"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
     </row>
     <row r="4" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="122"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="104"/>
     </row>
     <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4800,346 +4757,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="39"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="2:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="str">
+      <c r="B2" s="10" t="str">
         <f>'EB1'!B6</f>
         <v>ELC</v>
       </c>
-      <c r="C2" s="22" t="str">
+      <c r="C2" s="18" t="str">
         <f>'EB1'!C6</f>
         <v>Electricity Plants</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="10" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="10" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="J2" s="106" t="s">
+      <c r="H2" s="9"/>
+      <c r="J2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="108" t="s">
+      <c r="R3" s="94" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="J4" s="110" t="s">
+    <row r="4" spans="2:18" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="110" t="s">
+      <c r="R4" s="96" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="15"/>
-      <c r="J5" s="111" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111" t="str">
+      <c r="K5" s="97"/>
+      <c r="L5" s="97" t="str">
         <f>$B$2&amp;'EB1'!$D$2</f>
         <v>ELCCOA</v>
       </c>
-      <c r="M5" s="112" t="str">
+      <c r="M5" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$D$3</f>
         <v>Electricity Plants Solid Fuels</v>
       </c>
-      <c r="N5" s="111" t="str">
+      <c r="N5" s="97" t="str">
         <f t="shared" ref="N5:N12" si="0">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="15"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111" t="str">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="11"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97" t="str">
         <f>$B$2&amp;'EB1'!$E$2</f>
         <v>ELCGAS</v>
       </c>
-      <c r="M6" s="112" t="str">
+      <c r="M6" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$E$3</f>
         <v>Electricity Plants Natural Gas</v>
       </c>
-      <c r="N6" s="111" t="str">
+      <c r="N6" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="15"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111" t="str">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="11"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97" t="str">
         <f>$B$2&amp;'EB1'!$F$2</f>
         <v>ELCOIL</v>
       </c>
-      <c r="M7" s="112" t="str">
+      <c r="M7" s="98" t="str">
         <f>$C$2&amp;" "&amp;RIGHT('EB1'!$F$3,3)</f>
         <v>Electricity Plants oil</v>
       </c>
-      <c r="N7" s="111" t="str">
+      <c r="N7" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="15"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111" t="str">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="11"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97" t="str">
         <f>$B$2&amp;'EB1'!$N$2</f>
         <v>ELCNUC</v>
       </c>
-      <c r="M8" s="112" t="str">
+      <c r="M8" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$N$3</f>
         <v>Electricity Plants Nuclear Energy</v>
       </c>
-      <c r="N8" s="111" t="str">
+      <c r="N8" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="15"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111" t="str">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="11"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97" t="str">
         <f>$B$2&amp;'EB1'!$O$2</f>
         <v>ELCBIO</v>
       </c>
-      <c r="M9" s="112" t="str">
+      <c r="M9" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$O$3</f>
         <v>Electricity Plants Biomass</v>
       </c>
-      <c r="N9" s="111" t="str">
+      <c r="N9" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="15"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111" t="str">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="11"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97" t="str">
         <f>$B$2&amp;'EB1'!$P$2</f>
         <v>ELCHYD</v>
       </c>
-      <c r="M10" s="112" t="str">
+      <c r="M10" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$P$3</f>
         <v>Electricity Plants Hydro power</v>
       </c>
-      <c r="N10" s="111" t="str">
+      <c r="N10" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="15"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111" t="str">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="11"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97" t="str">
         <f>$B$2&amp;'EB1'!$Q$2</f>
         <v>ELCWIN</v>
       </c>
-      <c r="M11" s="112" t="str">
+      <c r="M11" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$Q$3</f>
         <v>Electricity Plants Wind energy</v>
       </c>
-      <c r="N11" s="111" t="str">
+      <c r="N11" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="15"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111" t="str">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="11"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97" t="str">
         <f>$B$2&amp;'EB1'!$R$2</f>
         <v>ELCSOL</v>
       </c>
-      <c r="M12" s="112" t="str">
+      <c r="M12" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$R$3</f>
         <v>Electricity Plants Solar energy</v>
       </c>
-      <c r="N12" s="111" t="str">
+      <c r="N12" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L13" s="27"/>
-      <c r="M13" s="29"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D14" s="4" t="s">
@@ -5147,147 +5080,147 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="J14" s="106" t="s">
+      <c r="J14" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="106"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="108" t="s">
+      <c r="J15" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="109" t="s">
+      <c r="K15" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="108" t="s">
+      <c r="L15" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="108" t="s">
+      <c r="M15" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="108" t="s">
+      <c r="N15" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="108" t="s">
+      <c r="O15" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="108" t="s">
+      <c r="P15" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="108" t="s">
+      <c r="Q15" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="108" t="s">
+      <c r="R15" s="94" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="J16" s="110" t="s">
+      <c r="J16" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="110" t="s">
+      <c r="K16" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="110" t="s">
+      <c r="L16" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="110" t="s">
+      <c r="M16" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="110" t="s">
+      <c r="N16" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="110" t="s">
+      <c r="O16" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="110" t="s">
+      <c r="P16" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="Q16" s="110" t="s">
+      <c r="Q16" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="110" t="s">
+      <c r="R16" s="96" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="str">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="str">
         <f>F2&amp;"a"</f>
         <v>M€2005a</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="110" t="s">
+      <c r="J17" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="114"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="str">
+      <c r="B18" s="21" t="str">
         <f>Sector_Fuels_ELC!L18</f>
         <v>FTE-ELCCOA</v>
       </c>
@@ -5295,44 +5228,44 @@
         <f>RIGHT(D18,3)</f>
         <v>COA</v>
       </c>
-      <c r="D18" s="25" t="str">
+      <c r="D18" s="21" t="str">
         <f>L5</f>
         <v>ELCCOA</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="71">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="63">
         <v>1</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="64">
         <v>30</v>
       </c>
-      <c r="J18" s="115" t="s">
+      <c r="J18" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="116"/>
-      <c r="L18" s="111" t="str">
+      <c r="K18" s="100"/>
+      <c r="L18" s="97" t="str">
         <f t="shared" ref="L18:L25" si="1">"FT"&amp;$G$2&amp;"-"&amp;L5</f>
         <v>FTE-ELCCOA</v>
       </c>
-      <c r="M18" s="112" t="str">
+      <c r="M18" s="98" t="str">
         <f t="shared" ref="M18:M25" si="2">$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M5</f>
         <v>Sector Fuel Technology Existing Electricity Plants Solid Fuels</v>
       </c>
-      <c r="N18" s="111" t="str">
+      <c r="N18" s="97" t="str">
         <f t="shared" ref="N18:N25" si="3">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O18" s="111" t="str">
+      <c r="O18" s="97" t="str">
         <f t="shared" ref="O18:O25" si="4">$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="str">
+      <c r="B19" s="21" t="str">
         <f>Sector_Fuels_ELC!L19</f>
         <v>FTE-ELCGAS</v>
       </c>
@@ -5340,42 +5273,42 @@
         <f>RIGHT(D19,3)</f>
         <v>GAS</v>
       </c>
-      <c r="D19" s="25" t="str">
+      <c r="D19" s="21" t="str">
         <f>L6</f>
         <v>ELCGAS</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="71">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="63">
         <v>1</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="64">
         <v>30</v>
       </c>
-      <c r="J19" s="113"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="111" t="str">
+      <c r="J19" s="97"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCGAS</v>
       </c>
-      <c r="M19" s="112" t="str">
+      <c r="M19" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Natural Gas</v>
       </c>
-      <c r="N19" s="111" t="str">
+      <c r="N19" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O19" s="111" t="str">
+      <c r="O19" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="25" t="str">
+      <c r="B20" s="21" t="str">
         <f>Sector_Fuels_ELC!L20</f>
         <v>FTE-ELCOIL</v>
       </c>
@@ -5383,153 +5316,153 @@
         <f>'EB1'!G$2</f>
         <v>DSL</v>
       </c>
-      <c r="D20" s="25" t="str">
+      <c r="D20" s="21" t="str">
         <f>L7</f>
         <v>ELCOIL</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="62">
         <f>-'EB1'!G$6/-SUM('EB1'!$G$6:$M$6)</f>
         <v>4.9257354796510562E-2</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="71">
+      <c r="F20" s="12"/>
+      <c r="G20" s="63">
         <v>1</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="64">
         <v>30</v>
       </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="111" t="str">
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCOIL</v>
       </c>
-      <c r="M20" s="112" t="str">
+      <c r="M20" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants oil</v>
       </c>
-      <c r="N20" s="111" t="str">
+      <c r="N20" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O20" s="111" t="str">
+      <c r="O20" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="25"/>
+      <c r="B21" s="21"/>
       <c r="C21" t="str">
         <f>'EB1'!I$2</f>
         <v>LPG</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="70">
+      <c r="D21" s="21"/>
+      <c r="E21" s="62">
         <f>-'EB1'!I$6/-SUM('EB1'!$G$6:$M$6)</f>
         <v>3.8926710484734312E-2</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="111" t="str">
+      <c r="F21" s="12"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCNUC</v>
       </c>
-      <c r="M21" s="112" t="str">
+      <c r="M21" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Nuclear Energy</v>
       </c>
-      <c r="N21" s="111" t="str">
+      <c r="N21" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O21" s="111" t="str">
+      <c r="O21" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="111"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="25"/>
+      <c r="B22" s="21"/>
       <c r="C22" t="str">
         <f>'EB1'!L$2</f>
         <v>HFO</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="70">
+      <c r="D22" s="21"/>
+      <c r="E22" s="62">
         <f>-'EB1'!L$6/-SUM('EB1'!$G$6:$M$6)</f>
         <v>0.85705723214511731</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111" t="str">
+      <c r="F22" s="12"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCBIO</v>
       </c>
-      <c r="M22" s="112" t="str">
+      <c r="M22" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Biomass</v>
       </c>
-      <c r="N22" s="111" t="str">
+      <c r="N22" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O22" s="111" t="str">
+      <c r="O22" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="25"/>
+      <c r="B23" s="21"/>
       <c r="C23" t="str">
         <f>'EB1'!M$2</f>
         <v>OPP</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="70">
+      <c r="D23" s="21"/>
+      <c r="E23" s="62">
         <f>-'EB1'!M$6/-SUM('EB1'!$G$6:$M$6)</f>
         <v>5.4758702573637796E-2</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="111" t="str">
+      <c r="F23" s="12"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCHYD</v>
       </c>
-      <c r="M23" s="112" t="str">
+      <c r="M23" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Hydro power</v>
       </c>
-      <c r="N23" s="111" t="str">
+      <c r="N23" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O23" s="111" t="str">
+      <c r="O23" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="28" t="str">
+      <c r="B24" s="21" t="str">
         <f>Sector_Fuels_ELC!L21</f>
         <v>FTE-ELCNUC</v>
       </c>
@@ -5537,42 +5470,42 @@
         <f>RIGHT(D24,3)</f>
         <v>NUC</v>
       </c>
-      <c r="D24" s="25" t="str">
+      <c r="D24" s="21" t="str">
         <f>L8</f>
         <v>ELCNUC</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="71">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="63">
         <v>1</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="64">
         <v>30</v>
       </c>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="111" t="str">
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCWIN</v>
       </c>
-      <c r="M24" s="112" t="str">
+      <c r="M24" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Wind energy</v>
       </c>
-      <c r="N24" s="111" t="str">
+      <c r="N24" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O24" s="111" t="str">
+      <c r="O24" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="28" t="str">
+      <c r="B25" s="21" t="str">
         <f>Sector_Fuels_ELC!L22</f>
         <v>FTE-ELCBIO</v>
       </c>
@@ -5580,42 +5513,42 @@
         <f>RIGHT(D25,3)</f>
         <v>BIO</v>
       </c>
-      <c r="D25" s="25" t="str">
+      <c r="D25" s="21" t="str">
         <f>L9</f>
         <v>ELCBIO</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="71">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="63">
         <v>1</v>
       </c>
-      <c r="H25" s="72">
+      <c r="H25" s="64">
         <v>30</v>
       </c>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="111" t="str">
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCSOL</v>
       </c>
-      <c r="M25" s="112" t="str">
+      <c r="M25" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Solar energy</v>
       </c>
-      <c r="N25" s="111" t="str">
+      <c r="N25" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O25" s="111" t="str">
+      <c r="O25" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="28" t="str">
+      <c r="B26" s="21" t="str">
         <f>Sector_Fuels_ELC!L23</f>
         <v>FTE-ELCHYD</v>
       </c>
@@ -5623,21 +5556,21 @@
         <f>RIGHT(D26,3)</f>
         <v>HYD</v>
       </c>
-      <c r="D26" s="25" t="str">
+      <c r="D26" s="21" t="str">
         <f>L10</f>
         <v>ELCHYD</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="71">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="63">
         <v>1</v>
       </c>
-      <c r="H26" s="72">
+      <c r="H26" s="64">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="str">
+      <c r="B27" s="21" t="str">
         <f>Sector_Fuels_ELC!L24</f>
         <v>FTE-ELCWIN</v>
       </c>
@@ -5645,21 +5578,21 @@
         <f>RIGHT(D27,3)</f>
         <v>WIN</v>
       </c>
-      <c r="D27" s="25" t="str">
+      <c r="D27" s="21" t="str">
         <f>L11</f>
         <v>ELCWIN</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="71">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="63">
         <v>1</v>
       </c>
-      <c r="H27" s="72">
+      <c r="H27" s="64">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="str">
+      <c r="B28" s="21" t="str">
         <f>Sector_Fuels_ELC!L25</f>
         <v>FTE-ELCSOL</v>
       </c>
@@ -5667,27 +5600,27 @@
         <f>RIGHT(D28,3)</f>
         <v>SOL</v>
       </c>
-      <c r="D28" s="25" t="str">
+      <c r="D28" s="21" t="str">
         <f>L12</f>
         <v>ELCSOL</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="71">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="63">
         <v>1</v>
       </c>
-      <c r="H28" s="72">
+      <c r="H28" s="64">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="52"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="68"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="1" t="s">
         <v>145</v>
       </c>
@@ -5704,32 +5637,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AF65536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -5739,229 +5672,227 @@
     <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.85546875" style="25"/>
+    <col min="33" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="2:32" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="str">
+      <c r="B2" s="10" t="str">
         <f>'EB1'!B6</f>
         <v>ELC</v>
       </c>
-      <c r="C2" s="22" t="str">
+      <c r="C2" s="18" t="str">
         <f>'EB1'!C6</f>
         <v>Electricity Plants</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="10" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="10" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="X2" s="106" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="X2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X3" s="108" t="s">
+      <c r="X3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="109" t="s">
+      <c r="Y3" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="108" t="s">
+      <c r="Z3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="108" t="s">
+      <c r="AA3" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="108" t="s">
+      <c r="AB3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="108" t="s">
+      <c r="AC3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="AD3" s="108" t="s">
+      <c r="AD3" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="108" t="s">
+      <c r="AE3" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="108" t="s">
+      <c r="AF3" s="94" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:32" s="26" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:32" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="110" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="X4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="110" t="s">
+      <c r="Y4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="110" t="s">
+      <c r="Z4" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="110" t="s">
+      <c r="AA4" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="110" t="s">
+      <c r="AB4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="110" t="s">
+      <c r="AC4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="110" t="s">
+      <c r="AD4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="AE4" s="110" t="s">
+      <c r="AE4" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="AF4" s="110" t="s">
+      <c r="AF4" s="96" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:32" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="115" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="X5" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="115" t="str">
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="93" t="str">
         <f>'EB1'!$U$2</f>
         <v>ELC</v>
       </c>
-      <c r="AA5" s="115" t="str">
+      <c r="AA5" s="93" t="str">
         <f>'EB1'!$U$3</f>
         <v>Electricity</v>
       </c>
-      <c r="AB5" s="115" t="str">
+      <c r="AB5" s="93" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115" t="s">
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="115" t="s">
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X6" s="113" t="s">
+      <c r="X6" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113" t="str">
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97" t="str">
         <f>$B$2&amp;'EB1'!$C$15</f>
         <v>ELCCO2</v>
       </c>
-      <c r="AA6" s="113" t="str">
+      <c r="AA6" s="97" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$C$16</f>
         <v>Electricity Plants Carbon dioxide</v>
       </c>
-      <c r="AB6" s="113" t="str">
+      <c r="AB6" s="97" t="str">
         <f>'EB1'!$AA$2</f>
         <v>kt</v>
       </c>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113"/>
-      <c r="AF6" s="113"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="G7" s="25">
+      <c r="G7" s="21">
         <v>0.1</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="21">
         <v>0.4</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="21">
         <v>0.3</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="21">
         <v>0.2</v>
       </c>
       <c r="X7" s="2"/>
@@ -5983,987 +5914,970 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="3"/>
-      <c r="U8" s="26"/>
-      <c r="X8" s="106" t="s">
+      <c r="X8" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="107"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
     </row>
     <row r="9" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="J9" s="80" t="s">
+      <c r="J9" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="K9" s="80">
+      <c r="K9" s="71">
         <v>2030</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="M9" s="80" t="s">
+      <c r="M9" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="80" t="s">
+      <c r="N9" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="O9" s="80" t="s">
+      <c r="O9" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="80" t="s">
+      <c r="P9" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="80" t="s">
+      <c r="Q9" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="R9" s="80" t="s">
+      <c r="R9" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="S9" s="80" t="s">
+      <c r="S9" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="T9" s="80" t="s">
+      <c r="T9" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="U9" s="30"/>
-      <c r="V9" s="101" t="s">
+      <c r="U9" s="23"/>
+      <c r="V9" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="108" t="s">
+      <c r="W9" s="27"/>
+      <c r="X9" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="109" t="s">
+      <c r="Y9" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="Z9" s="108" t="s">
+      <c r="Z9" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="AA9" s="108" t="s">
+      <c r="AA9" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="AB9" s="108" t="s">
+      <c r="AB9" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AC9" s="108" t="s">
+      <c r="AC9" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AD9" s="108" t="s">
+      <c r="AD9" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AE9" s="108" t="s">
+      <c r="AE9" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="AF9" s="108" t="s">
+      <c r="AF9" s="94" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:32" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="86" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="86" t="s">
+      <c r="N10" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="Q10" s="19" t="s">
+      <c r="Q10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="S10" s="19" t="s">
+      <c r="S10" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="T10" s="19" t="s">
+      <c r="T10" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="U10" s="26"/>
-      <c r="V10" s="38" t="s">
+      <c r="V10" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="W10" s="36"/>
-      <c r="X10" s="110" t="s">
+      <c r="W10" s="28"/>
+      <c r="X10" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="Y10" s="110" t="s">
+      <c r="Y10" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="110" t="s">
+      <c r="Z10" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="AA10" s="110" t="s">
+      <c r="AA10" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="AB10" s="110" t="s">
+      <c r="AB10" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="AC10" s="110" t="s">
+      <c r="AC10" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="AD10" s="110" t="s">
+      <c r="AD10" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="AE10" s="110" t="s">
+      <c r="AE10" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="AF10" s="110" t="s">
+      <c r="AF10" s="96" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="105" t="str">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="F11" s="105" t="str">
+      <c r="F11" s="13" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81" t="str">
+      <c r="G11" s="13"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="17" t="str">
+      <c r="L11" s="72"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="13" t="str">
         <f>$G$2&amp;"/"&amp;$F$2</f>
         <v>M€2005/GW</v>
       </c>
-      <c r="P11" s="17" t="str">
+      <c r="P11" s="13" t="str">
         <f>$G$2&amp;"/"&amp;$F$2</f>
         <v>M€2005/GW</v>
       </c>
-      <c r="Q11" s="17" t="str">
+      <c r="Q11" s="13" t="str">
         <f>$G$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="R11" s="17" t="s">
+      <c r="R11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="S11" s="17" t="str">
+      <c r="S11" s="13" t="str">
         <f>$E$2&amp;"/"&amp;$F$2</f>
         <v>PJ/GW</v>
       </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="102" t="s">
+      <c r="T11" s="13"/>
+      <c r="V11" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="W11" s="36"/>
-      <c r="X11" s="110" t="s">
+      <c r="W11" s="28"/>
+      <c r="X11" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="96"/>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="str">
+      <c r="B12" s="21" t="str">
         <f t="shared" ref="B12:B19" si="0">Z12</f>
         <v>ELCTECOA00</v>
       </c>
-      <c r="C12" s="25" t="str">
+      <c r="C12" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L5,3)</f>
         <v>ELCCOA</v>
       </c>
-      <c r="D12" s="25" t="str">
+      <c r="D12" s="21" t="str">
         <f t="shared" ref="D12:D19" si="1">$Z$5</f>
         <v>ELC</v>
       </c>
-      <c r="G12" s="98">
+      <c r="G12" s="86">
         <f>G$7*$G26</f>
         <v>8.9372771062763032</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="86">
         <f>H$7*$G26</f>
         <v>35.749108425105213</v>
       </c>
-      <c r="I12" s="98">
+      <c r="I12" s="86">
         <f>I$7*$G26</f>
         <v>26.811831318828904</v>
       </c>
-      <c r="J12" s="98">
+      <c r="J12" s="86">
         <f>J$7*$G26</f>
         <v>17.874554212552606</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="61">
         <v>0</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="61">
         <v>10</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="67">
         <v>0.38400000000000001</v>
       </c>
-      <c r="N12" s="76">
+      <c r="N12" s="67">
         <v>0.85</v>
       </c>
-      <c r="O12" s="75"/>
-      <c r="P12" s="76">
+      <c r="O12" s="66"/>
+      <c r="P12" s="67">
         <v>40</v>
       </c>
-      <c r="Q12" s="76">
+      <c r="Q12" s="67">
         <v>0.5</v>
       </c>
-      <c r="R12" s="75">
+      <c r="R12" s="66">
         <v>30</v>
       </c>
-      <c r="S12" s="75">
+      <c r="S12" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="T12" s="76">
+      <c r="T12" s="67">
         <v>1</v>
       </c>
-      <c r="U12" s="26"/>
-      <c r="V12" s="34">
+      <c r="V12" s="26">
         <f t="shared" ref="V12:V19" si="2">G12*$N12*$S12</f>
         <v>239.56907520000007</v>
       </c>
-      <c r="W12" s="100"/>
-      <c r="X12" s="111" t="s">
+      <c r="W12" s="87"/>
+      <c r="X12" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="Y12" s="111"/>
-      <c r="Z12" s="111" t="str">
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97" t="str">
         <f>$B$2&amp;$C$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$5,3)&amp;"00"</f>
         <v>ELCTECOA00</v>
       </c>
-      <c r="AA12" s="112" t="str">
+      <c r="AA12" s="98" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(Z12,2)&amp;" - "&amp;'EB1'!D3</f>
         <v>Power Plants Existing00 - Solid Fuels</v>
       </c>
-      <c r="AB12" s="111" t="str">
+      <c r="AB12" s="97" t="str">
         <f t="shared" ref="AB12:AB19" si="3">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="AC12" s="111" t="str">
+      <c r="AC12" s="97" t="str">
         <f t="shared" ref="AC12:AC19" si="4">$F$2</f>
         <v>GW</v>
       </c>
-      <c r="AD12" s="115" t="s">
+      <c r="AD12" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="AE12" s="111"/>
-      <c r="AF12" s="111"/>
+      <c r="AE12" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF12" s="97"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B13" s="25" t="str">
+      <c r="B13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCTEGAS00</v>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L6,3)</f>
         <v>ELCGAS</v>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="G13" s="98">
+      <c r="G13" s="86">
         <f t="shared" ref="G13:J16" si="5">G$7*$G27</f>
         <v>4.1450437783149789</v>
       </c>
-      <c r="H13" s="98">
+      <c r="H13" s="86">
         <f t="shared" si="5"/>
         <v>16.580175113259916</v>
       </c>
-      <c r="I13" s="98">
+      <c r="I13" s="86">
         <f t="shared" si="5"/>
         <v>12.435131334944936</v>
       </c>
-      <c r="J13" s="98">
+      <c r="J13" s="86">
         <f t="shared" si="5"/>
         <v>8.2900875566299579</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="61">
         <v>0</v>
       </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="94">
+      <c r="L13" s="61"/>
+      <c r="M13" s="67">
         <v>0.4929</v>
       </c>
-      <c r="N13" s="76">
+      <c r="N13" s="67">
         <v>0.85</v>
       </c>
-      <c r="O13" s="75"/>
-      <c r="P13" s="76">
+      <c r="O13" s="66"/>
+      <c r="P13" s="67">
         <v>35</v>
       </c>
-      <c r="Q13" s="76">
+      <c r="Q13" s="67">
         <v>0.4</v>
       </c>
-      <c r="R13" s="75">
+      <c r="R13" s="66">
         <v>20</v>
       </c>
-      <c r="S13" s="75">
+      <c r="S13" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="T13" s="76">
+      <c r="T13" s="67">
         <v>1</v>
       </c>
-      <c r="U13" s="26"/>
-      <c r="V13" s="34">
+      <c r="V13" s="26">
         <f t="shared" si="2"/>
         <v>111.11038550400001</v>
       </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="111" t="str">
+      <c r="W13" s="29"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97" t="str">
         <f>$B$2&amp;$C$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$6,3)&amp;"00"</f>
         <v>ELCTEGAS00</v>
       </c>
-      <c r="AA13" s="112" t="str">
+      <c r="AA13" s="98" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(Z13,2)&amp;" - "&amp;'EB1'!E3</f>
         <v>Power Plants Existing00 - Natural Gas</v>
       </c>
-      <c r="AB13" s="111" t="str">
+      <c r="AB13" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="AC13" s="111" t="str">
+      <c r="AC13" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="111"/>
-      <c r="AF13" s="111"/>
+      <c r="AD13" s="97"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="97"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="str">
+      <c r="B14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCTEOIL00</v>
       </c>
-      <c r="C14" s="25" t="str">
+      <c r="C14" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L7,3)</f>
         <v>ELCOIL</v>
       </c>
-      <c r="D14" s="25" t="str">
+      <c r="D14" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="86">
         <f t="shared" si="5"/>
         <v>0.57106024487420537</v>
       </c>
-      <c r="H14" s="98">
+      <c r="H14" s="86">
         <f t="shared" si="5"/>
         <v>2.2842409794968215</v>
       </c>
-      <c r="I14" s="98">
+      <c r="I14" s="86">
         <f t="shared" si="5"/>
         <v>1.7131807346226158</v>
       </c>
-      <c r="J14" s="98">
+      <c r="J14" s="86">
         <f t="shared" si="5"/>
         <v>1.1421204897484107</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="61">
         <v>0</v>
       </c>
-      <c r="L14" s="69"/>
-      <c r="M14" s="94">
+      <c r="L14" s="61"/>
+      <c r="M14" s="67">
         <v>0.25</v>
       </c>
-      <c r="N14" s="94">
+      <c r="N14" s="67">
         <v>0.85</v>
       </c>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94">
+      <c r="O14" s="66"/>
+      <c r="P14" s="67">
         <v>20</v>
       </c>
-      <c r="Q14" s="94">
+      <c r="Q14" s="67">
         <v>0.2</v>
       </c>
-      <c r="R14" s="93">
+      <c r="R14" s="66">
         <v>30</v>
       </c>
-      <c r="S14" s="75">
+      <c r="S14" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="T14" s="76">
+      <c r="T14" s="67">
         <v>1</v>
       </c>
-      <c r="U14" s="26"/>
-      <c r="V14" s="34">
+      <c r="V14" s="26">
         <f t="shared" si="2"/>
         <v>15.307612499999999</v>
       </c>
-      <c r="W14" s="37"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111"/>
-      <c r="Z14" s="111" t="str">
+      <c r="W14" s="29"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97" t="str">
         <f>$B$2&amp;$C$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$7,3)&amp;"00"</f>
         <v>ELCTEOIL00</v>
       </c>
-      <c r="AA14" s="112" t="str">
+      <c r="AA14" s="98" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(Z14,2)&amp;" - "&amp;'EB1'!F3</f>
         <v>Power Plants Existing00 - Crude oil</v>
       </c>
-      <c r="AB14" s="111" t="str">
+      <c r="AB14" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="AC14" s="111" t="str">
+      <c r="AC14" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="111"/>
-      <c r="AF14" s="111"/>
+      <c r="AD14" s="97"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="97"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="str">
+      <c r="B15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCNENUC00</v>
       </c>
-      <c r="C15" s="25" t="str">
+      <c r="C15" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L8,3)</f>
         <v>ELCNUC</v>
       </c>
-      <c r="D15" s="28" t="str">
+      <c r="D15" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="98">
+      <c r="G15" s="86">
         <f t="shared" si="5"/>
         <v>5.1797945205479463</v>
       </c>
-      <c r="H15" s="98">
+      <c r="H15" s="86">
         <f t="shared" si="5"/>
         <v>20.719178082191785</v>
       </c>
-      <c r="I15" s="98">
+      <c r="I15" s="86">
         <f t="shared" si="5"/>
         <v>15.539383561643836</v>
       </c>
-      <c r="J15" s="98">
+      <c r="J15" s="86">
         <f t="shared" si="5"/>
         <v>10.359589041095893</v>
       </c>
-      <c r="K15" s="99">
+      <c r="K15" s="86">
         <v>0</v>
       </c>
-      <c r="L15" s="99"/>
-      <c r="M15" s="93">
+      <c r="L15" s="86"/>
+      <c r="M15" s="66">
         <v>0.33</v>
       </c>
-      <c r="N15" s="94">
+      <c r="N15" s="67">
         <v>0.9</v>
       </c>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94">
+      <c r="O15" s="66"/>
+      <c r="P15" s="67">
         <v>38</v>
       </c>
-      <c r="Q15" s="93">
+      <c r="Q15" s="66">
         <v>0.27</v>
       </c>
-      <c r="R15" s="74"/>
-      <c r="S15" s="93">
+      <c r="R15" s="43"/>
+      <c r="S15" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="T15" s="94">
+      <c r="T15" s="67">
         <v>1</v>
       </c>
-      <c r="U15" s="28"/>
-      <c r="V15" s="34">
+      <c r="V15" s="26">
         <f t="shared" si="2"/>
         <v>147.01500000000004</v>
       </c>
-      <c r="W15" s="37"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="111" t="str">
+      <c r="W15" s="29"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97" t="str">
         <f>$B$2&amp;$F$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$8,3)&amp;"00"</f>
         <v>ELCNENUC00</v>
       </c>
-      <c r="AA15" s="118" t="str">
+      <c r="AA15" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(Z15,2)&amp;" - "&amp;'EB1'!N3</f>
         <v>Power Plants Existing00 - Nuclear Energy</v>
       </c>
-      <c r="AB15" s="111" t="str">
+      <c r="AB15" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="AC15" s="111" t="str">
+      <c r="AC15" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="AD15" s="115" t="s">
+      <c r="AD15" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="AE15" s="111"/>
-      <c r="AF15" s="111"/>
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="97"/>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B16" s="28" t="str">
+      <c r="B16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCREBIO00</v>
       </c>
-      <c r="C16" s="25" t="str">
+      <c r="C16" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L9,3)</f>
         <v>ELCBIO</v>
       </c>
-      <c r="D16" s="28" t="str">
+      <c r="D16" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="98">
+      <c r="G16" s="86">
         <f t="shared" si="5"/>
         <v>0.78023302733384092</v>
       </c>
-      <c r="H16" s="98">
+      <c r="H16" s="86">
         <f t="shared" si="5"/>
         <v>3.1209321093353637</v>
       </c>
-      <c r="I16" s="98">
+      <c r="I16" s="86">
         <f t="shared" si="5"/>
         <v>2.3406990820015223</v>
       </c>
-      <c r="J16" s="98">
+      <c r="J16" s="86">
         <f t="shared" si="5"/>
         <v>1.5604660546676818</v>
       </c>
-      <c r="K16" s="92">
+      <c r="K16" s="61">
         <v>0</v>
       </c>
-      <c r="L16" s="92"/>
-      <c r="M16" s="73">
+      <c r="L16" s="61"/>
+      <c r="M16" s="65">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N16" s="73">
+      <c r="N16" s="65">
         <v>0.6</v>
       </c>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74">
+      <c r="O16" s="65"/>
+      <c r="P16" s="43">
         <v>25</v>
       </c>
-      <c r="Q16" s="73">
+      <c r="Q16" s="65">
         <v>0.35</v>
       </c>
-      <c r="R16" s="74">
+      <c r="R16" s="43">
         <v>25</v>
       </c>
-      <c r="S16" s="93">
+      <c r="S16" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="T16" s="94">
+      <c r="T16" s="67">
         <v>1</v>
       </c>
-      <c r="U16" s="28"/>
-      <c r="V16" s="34">
+      <c r="V16" s="26">
         <f t="shared" si="2"/>
         <v>14.763257250000006</v>
       </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="111"/>
-      <c r="Y16" s="111"/>
-      <c r="Z16" s="111" t="str">
+      <c r="W16" s="29"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97" t="str">
         <f>$B$2&amp;$E$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$9,3)&amp;"00"</f>
         <v>ELCREBIO00</v>
       </c>
-      <c r="AA16" s="118" t="str">
+      <c r="AA16" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(Z16,2)&amp;" - "&amp;'EB1'!O3</f>
         <v>Power Plants Existing00 - Biomass</v>
       </c>
-      <c r="AB16" s="111" t="str">
+      <c r="AB16" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="AC16" s="111" t="str">
+      <c r="AC16" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="AD16" s="115"/>
-      <c r="AE16" s="111"/>
-      <c r="AF16" s="111"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B17" s="28" t="str">
+      <c r="B17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCREHYD00</v>
       </c>
-      <c r="C17" s="25" t="str">
+      <c r="C17" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L10,3)</f>
         <v>ELCHYD</v>
       </c>
-      <c r="D17" s="28" t="str">
+      <c r="D17" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="43">
         <v>15</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="43">
         <v>16</v>
       </c>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="73">
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="65">
         <v>1</v>
       </c>
-      <c r="N17" s="73">
+      <c r="N17" s="65">
         <v>0.5</v>
       </c>
-      <c r="O17" s="73"/>
-      <c r="P17" s="74">
+      <c r="O17" s="65"/>
+      <c r="P17" s="43">
         <v>50</v>
       </c>
-      <c r="Q17" s="73">
+      <c r="Q17" s="65">
         <v>2</v>
       </c>
-      <c r="R17" s="74">
+      <c r="R17" s="43">
         <v>200</v>
       </c>
-      <c r="S17" s="93">
+      <c r="S17" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="T17" s="94">
+      <c r="T17" s="67">
         <v>0.5</v>
       </c>
-      <c r="U17" s="28"/>
-      <c r="V17" s="34">
+      <c r="V17" s="26">
         <f>(E17+F17)*$N17*$S17</f>
         <v>488.80799999999999</v>
       </c>
-      <c r="W17" s="37"/>
-      <c r="X17" s="111"/>
-      <c r="Y17" s="111"/>
-      <c r="Z17" s="111" t="str">
+      <c r="W17" s="29"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97" t="str">
         <f>$B$2&amp;$E$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$10,3)&amp;"00"</f>
         <v>ELCREHYD00</v>
       </c>
-      <c r="AA17" s="118" t="str">
+      <c r="AA17" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(Z17,2)&amp;" - "&amp;'EB1'!P3</f>
         <v>Power Plants Existing00 - Hydro power</v>
       </c>
-      <c r="AB17" s="111" t="str">
+      <c r="AB17" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="AC17" s="111" t="str">
+      <c r="AC17" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="AD17" s="111"/>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="111"/>
+      <c r="AD17" s="97"/>
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="97"/>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B18" s="28" t="str">
+      <c r="B18" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCREWIN00</v>
       </c>
-      <c r="C18" s="25" t="str">
+      <c r="C18" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L11,3)</f>
         <v>ELCWIN</v>
       </c>
-      <c r="D18" s="28" t="str">
+      <c r="D18" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="98">
+      <c r="G18" s="86">
         <f t="shared" ref="G18:J19" si="6">G$7*$G32</f>
         <v>2.3908866057838662</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18" s="86">
         <f t="shared" si="6"/>
         <v>9.563546423135465</v>
       </c>
-      <c r="I18" s="98">
+      <c r="I18" s="86">
         <f t="shared" si="6"/>
         <v>7.1726598173515983</v>
       </c>
-      <c r="J18" s="98">
+      <c r="J18" s="86">
         <f t="shared" si="6"/>
         <v>4.7817732115677325</v>
       </c>
-      <c r="K18" s="92">
+      <c r="K18" s="61">
         <v>0</v>
       </c>
-      <c r="L18" s="92"/>
-      <c r="M18" s="73">
+      <c r="L18" s="61"/>
+      <c r="M18" s="65">
         <v>1</v>
       </c>
-      <c r="N18" s="73">
+      <c r="N18" s="65">
         <v>0.35</v>
       </c>
-      <c r="O18" s="73"/>
-      <c r="P18" s="74">
+      <c r="O18" s="65"/>
+      <c r="P18" s="43">
         <v>35</v>
       </c>
-      <c r="Q18" s="73">
+      <c r="Q18" s="65">
         <v>0.5</v>
       </c>
-      <c r="R18" s="74">
+      <c r="R18" s="43">
         <v>20</v>
       </c>
-      <c r="S18" s="93">
+      <c r="S18" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="T18" s="94">
+      <c r="T18" s="67">
         <v>0.3</v>
       </c>
-      <c r="U18" s="28"/>
-      <c r="V18" s="34">
+      <c r="V18" s="26">
         <f t="shared" si="2"/>
         <v>26.389650000000003</v>
       </c>
-      <c r="W18" s="37"/>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="111"/>
-      <c r="Z18" s="111" t="str">
+      <c r="W18" s="29"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="97" t="str">
         <f>$B$2&amp;$E$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$11,3)&amp;"00"</f>
         <v>ELCREWIN00</v>
       </c>
-      <c r="AA18" s="118" t="str">
+      <c r="AA18" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(Z18,2)&amp;" - "&amp;'EB1'!Q3</f>
         <v>Power Plants Existing00 - Wind energy</v>
       </c>
-      <c r="AB18" s="111" t="str">
+      <c r="AB18" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="AC18" s="111" t="str">
+      <c r="AC18" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="AD18" s="111"/>
-      <c r="AE18" s="111"/>
-      <c r="AF18" s="111"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="97"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B19" s="28" t="str">
+      <c r="B19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCRESOL00</v>
       </c>
-      <c r="C19" s="25" t="str">
+      <c r="C19" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L12,3)</f>
         <v>ELCSOL</v>
       </c>
-      <c r="D19" s="28" t="str">
+      <c r="D19" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="98">
+      <c r="G19" s="86">
         <f t="shared" si="6"/>
         <v>0.7187552849653307</v>
       </c>
-      <c r="H19" s="98">
+      <c r="H19" s="86">
         <f t="shared" si="6"/>
         <v>2.8750211398613228</v>
       </c>
-      <c r="I19" s="98">
+      <c r="I19" s="86">
         <f t="shared" si="6"/>
         <v>2.1562658548959917</v>
       </c>
-      <c r="J19" s="98">
+      <c r="J19" s="86">
         <f t="shared" si="6"/>
         <v>1.4375105699306614</v>
       </c>
-      <c r="K19" s="92">
+      <c r="K19" s="61">
         <v>0</v>
       </c>
-      <c r="L19" s="92"/>
-      <c r="M19" s="73">
+      <c r="L19" s="61"/>
+      <c r="M19" s="65">
         <v>1</v>
       </c>
-      <c r="N19" s="73">
+      <c r="N19" s="65">
         <v>0.3</v>
       </c>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74">
+      <c r="O19" s="65"/>
+      <c r="P19" s="43">
         <v>60</v>
       </c>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="74">
+      <c r="Q19" s="65"/>
+      <c r="R19" s="43">
         <v>15</v>
       </c>
-      <c r="S19" s="93">
+      <c r="S19" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="T19" s="94">
+      <c r="T19" s="67">
         <v>0.2</v>
       </c>
-      <c r="U19" s="28"/>
-      <c r="V19" s="34">
+      <c r="V19" s="26">
         <f t="shared" si="2"/>
         <v>6.8000000000000007</v>
       </c>
-      <c r="W19" s="37"/>
-      <c r="X19" s="111"/>
-      <c r="Y19" s="111"/>
-      <c r="Z19" s="111" t="str">
+      <c r="W19" s="29"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="97" t="str">
         <f>$B$2&amp;$E$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$12,3)&amp;"00"</f>
         <v>ELCRESOL00</v>
       </c>
-      <c r="AA19" s="118" t="str">
+      <c r="AA19" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(Z19,2)&amp;" - "&amp;'EB1'!R3</f>
         <v>Power Plants Existing00 - Solar energy</v>
       </c>
-      <c r="AB19" s="111" t="str">
+      <c r="AB19" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="AC19" s="111" t="str">
+      <c r="AC19" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="AD19" s="111"/>
-      <c r="AE19" s="111"/>
-      <c r="AF19" s="111"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="97"/>
+      <c r="AF19" s="97"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="V21" s="97"/>
+      <c r="V21" s="85"/>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="V22" s="97"/>
+      <c r="V22" s="85"/>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B23" s="52"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="V23" s="97"/>
+      <c r="V23" s="85"/>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B24" s="68"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="V24" s="97"/>
+      <c r="V24" s="85"/>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="V25" s="97"/>
+      <c r="V25" s="85"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="G26" s="119">
+      <c r="G26" s="101">
         <v>89.372771062763022</v>
       </c>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="G27" s="119">
+      <c r="G27" s="101">
         <v>41.450437783149788</v>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="G28" s="119">
+      <c r="G28" s="101">
         <v>5.710602448742053</v>
       </c>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="G29" s="119">
+      <c r="G29" s="101">
         <v>51.797945205479458</v>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="G30" s="119">
+      <c r="G30" s="101">
         <v>7.8023302733384083</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="G31" s="119"/>
+      <c r="G31" s="101"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="G32" s="119">
+      <c r="G32" s="101">
         <v>23.908866057838662</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="119">
+      <c r="G33" s="101">
         <v>7.1875528496533061</v>
       </c>
     </row>
     <row r="65536" spans="23:23" x14ac:dyDescent="0.2">
-      <c r="W65536" s="37"/>
+      <c r="W65536" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6985,105 +6899,95 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="2:10" s="6" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="45" t="str">
+      <c r="C6" s="37" t="str">
         <f>Sector_Fuels_ELC!$L$5</f>
         <v>ELCCOA</v>
       </c>
-      <c r="D6" s="45" t="str">
+      <c r="D6" s="37" t="str">
         <f>Sector_Fuels_ELC!$L$6</f>
         <v>ELCGAS</v>
       </c>
-      <c r="E6" s="45" t="str">
+      <c r="E6" s="37" t="str">
         <f>Sector_Fuels_ELC!$L$7</f>
         <v>ELCOIL</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="25" t="str">
+      <c r="B8" s="21" t="str">
         <f>Con_ELC!$Z$6</f>
         <v>ELCCO2</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="65">
         <v>95</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="65">
         <v>56.1</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="65">
         <v>76.400000000000006</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="52"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="68"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="1" t="s">
         <v>145</v>
       </c>

--- a/VT_EREG1_ELC_V12.xlsx
+++ b/VT_EREG1_ELC_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda_testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B7F89-4057-483E-A720-E2FB74C75546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08311A06-4785-4325-97A5-4BCDF56E7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -346,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="P16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="Q16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -464,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="R16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -527,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="J17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="188">
   <si>
     <t>CommName</t>
   </si>
@@ -2029,6 +2029,51 @@
   </si>
   <si>
     <t>~FI_T: Stock~2000</t>
+  </si>
+  <si>
+    <t>date: today; version: hgf</t>
+  </si>
+  <si>
+    <t>&lt;dimension&gt;: &lt;metadata&gt;; &lt;dimension&gt;: &lt;meta data&gt;</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>hierarchy</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>~md_w: lkajdlfkjlakdjf</t>
+  </si>
+  <si>
+    <t>~md_t</t>
   </si>
 </sst>
 </file>
@@ -2598,7 +2643,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2807,6 +2852,7 @@
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3169,13 +3215,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>407670</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4054,28 +4100,30 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:AA17"/>
+  <dimension ref="B1:AA24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.86328125" customWidth="1"/>
+    <col min="8" max="8" width="12.1328125" customWidth="1"/>
+    <col min="9" max="12" width="10.86328125" customWidth="1"/>
+    <col min="13" max="13" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="10.86328125" customWidth="1"/>
+    <col min="22" max="22" width="7.265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="X1" s="19" t="s">
         <v>78</v>
       </c>
@@ -4089,7 +4137,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="D2" s="40" t="s">
         <v>42</v>
       </c>
@@ -4157,7 +4205,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C3" s="59" t="s">
         <v>121</v>
       </c>
@@ -4219,7 +4267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B4" s="38"/>
       <c r="C4" s="74" t="s">
         <v>55</v>
@@ -4244,7 +4292,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="75"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B5" s="42" t="s">
         <v>56</v>
       </c>
@@ -4309,7 +4357,7 @@
         <v>-1274.6994499999998</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" s="42" t="s">
         <v>48</v>
       </c>
@@ -4375,7 +4423,7 @@
       </c>
       <c r="X6" s="83"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B7" s="42" t="s">
         <v>59</v>
       </c>
@@ -4440,7 +4488,7 @@
         <v>-26.820549999999912</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="42" t="s">
         <v>61</v>
       </c>
@@ -4505,7 +4553,7 @@
         <v>-200.86150000000021</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B9" s="38"/>
       <c r="C9" s="47" t="s">
         <v>63</v>
@@ -4587,7 +4635,7 @@
         <v>-9781.6922875000037</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4598,7 +4646,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -4614,7 +4662,7 @@
       <c r="Q11" s="84"/>
       <c r="R11" s="84"/>
     </row>
-    <row r="12" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C12" s="45" t="s">
         <v>142</v>
       </c>
@@ -4629,7 +4677,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C15" s="56" t="s">
         <v>89</v>
       </c>
@@ -4640,7 +4688,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B16" s="19" t="s">
         <v>98</v>
       </c>
@@ -4654,7 +4702,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B17" s="42" t="s">
         <v>48</v>
       </c>
@@ -4663,6 +4711,21 @@
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="82"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4676,36 +4739,36 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="6.85546875" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.86328125" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" customWidth="1"/>
+    <col min="3" max="4" width="6.86328125" customWidth="1"/>
+    <col min="14" max="14" width="5.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="69" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="E4" s="102" t="s">
+    <row r="4" spans="2:13" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="E4" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="104"/>
-    </row>
-    <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="105"/>
+    </row>
+    <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E5" s="70" t="s">
         <v>147</v>
       </c>
@@ -4730,33 +4793,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:R33"/>
+  <dimension ref="B1:R34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="2.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="7.1328125" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="61.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1328125" customWidth="1"/>
+    <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
         <v>65</v>
       </c>
@@ -4777,7 +4842,7 @@
       </c>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="2:18" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="str">
         <f>'EB1'!B6</f>
         <v>ELC</v>
@@ -4813,7 +4878,7 @@
       <c r="Q2" s="93"/>
       <c r="R2" s="93"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="J3" s="94" t="s">
         <v>7</v>
       </c>
@@ -4842,8 +4907,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
+    <row r="4" spans="2:18" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -4876,11 +4943,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="11"/>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="J5" s="97" t="s">
         <v>64</v>
       </c>
@@ -4902,11 +4986,17 @@
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="80" t="str">
+        <f>D15</f>
+        <v>~FI_T</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="68"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="J6" s="97"/>
       <c r="K6" s="97"/>
       <c r="L6" s="97" t="str">
@@ -4926,11 +5016,20 @@
       <c r="Q6" s="97"/>
       <c r="R6" s="97"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="80">
+        <f>G20</f>
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="102">
+        <v>45414</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="68"/>
-      <c r="H7" s="11"/>
+      <c r="H7" t="s">
+        <v>184</v>
+      </c>
       <c r="J7" s="97"/>
       <c r="K7" s="97"/>
       <c r="L7" s="97" t="str">
@@ -4950,11 +5049,14 @@
       <c r="Q7" s="97"/>
       <c r="R7" s="97"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="11"/>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B8" s="97" t="str">
+        <f>J2</f>
+        <v>~FI_Comm</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="J8" s="97"/>
       <c r="K8" s="97"/>
       <c r="L8" s="97" t="str">
@@ -4974,11 +5076,17 @@
       <c r="Q8" s="97"/>
       <c r="R8" s="97"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="7">
+        <f>F19</f>
+        <v>0</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="68"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="J9" s="97"/>
       <c r="K9" s="97"/>
       <c r="L9" s="97" t="str">
@@ -4998,11 +5106,17 @@
       <c r="Q9" s="97"/>
       <c r="R9" s="97"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B10" t="str">
+        <f>B21</f>
+        <v>FTE-ELCOIL</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="68"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>183</v>
+      </c>
       <c r="J10" s="97"/>
       <c r="K10" s="97"/>
       <c r="L10" s="97" t="str">
@@ -5022,11 +5136,17 @@
       <c r="Q10" s="97"/>
       <c r="R10" s="97"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B11" s="97" t="str">
+        <f>L19</f>
+        <v>FTE-ELCCOA</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="68"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="J11" s="97"/>
       <c r="K11" s="97"/>
       <c r="L11" s="97" t="str">
@@ -5046,7 +5166,7 @@
       <c r="Q11" s="97"/>
       <c r="R11" s="97"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="68"/>
@@ -5070,212 +5190,182 @@
       <c r="Q12" s="97"/>
       <c r="R12" s="97"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D14" s="4" t="s">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="11"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="J14" s="92" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="J15" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="92"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="16" t="s">
+      <c r="K15" s="92"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+    </row>
+    <row r="16" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B16" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E16" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F16" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G16" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H16" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="94" t="s">
+      <c r="J16" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="95" t="s">
+      <c r="K16" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="94" t="s">
+      <c r="L16" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="94" t="s">
+      <c r="M16" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="94" t="s">
+      <c r="N16" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="94" t="s">
+      <c r="O16" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="94" t="s">
+      <c r="P16" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="94" t="s">
+      <c r="Q16" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="94" t="s">
+      <c r="R16" s="94" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+    <row r="17" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G17" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J17" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="96" t="s">
+      <c r="K17" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="96" t="s">
+      <c r="L17" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M17" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="96" t="s">
+      <c r="N17" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="96" t="s">
+      <c r="O17" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="96" t="s">
+      <c r="P17" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="Q16" s="96" t="s">
+      <c r="Q17" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="96" t="s">
+      <c r="R17" s="96" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+    <row r="18" spans="2:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="str">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="str">
         <f>F2&amp;"a"</f>
         <v>M€2005a</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="96" t="s">
+      <c r="J18" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="str">
-        <f>Sector_Fuels_ELC!L18</f>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B19" s="21" t="str">
+        <f>Sector_Fuels_ELC!L19</f>
         <v>FTE-ELCCOA</v>
       </c>
-      <c r="C18" t="str">
-        <f>RIGHT(D18,3)</f>
+      <c r="C19" t="str">
+        <f>RIGHT(D19,3)</f>
         <v>COA</v>
       </c>
-      <c r="D18" s="21" t="str">
+      <c r="D19" s="21" t="str">
         <f>L5</f>
         <v>ELCCOA</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="63">
-        <v>1</v>
-      </c>
-      <c r="H18" s="64">
-        <v>30</v>
-      </c>
-      <c r="J18" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="100"/>
-      <c r="L18" s="97" t="str">
-        <f t="shared" ref="L18:L25" si="1">"FT"&amp;$G$2&amp;"-"&amp;L5</f>
-        <v>FTE-ELCCOA</v>
-      </c>
-      <c r="M18" s="98" t="str">
-        <f t="shared" ref="M18:M25" si="2">$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M5</f>
-        <v>Sector Fuel Technology Existing Electricity Plants Solid Fuels</v>
-      </c>
-      <c r="N18" s="97" t="str">
-        <f t="shared" ref="N18:N25" si="3">$E$2</f>
-        <v>PJ</v>
-      </c>
-      <c r="O18" s="97" t="str">
-        <f t="shared" ref="O18:O25" si="4">$E$2&amp;"a"</f>
-        <v>PJa</v>
-      </c>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="21" t="str">
-        <f>Sector_Fuels_ELC!L19</f>
-        <v>FTE-ELCGAS</v>
-      </c>
-      <c r="C19" t="str">
-        <f>RIGHT(D19,3)</f>
-        <v>GAS</v>
-      </c>
-      <c r="D19" s="21" t="str">
-        <f>L6</f>
-        <v>ELCGAS</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -5285,61 +5375,60 @@
       <c r="H19" s="64">
         <v>30</v>
       </c>
-      <c r="J19" s="97"/>
+      <c r="J19" s="93" t="s">
+        <v>95</v>
+      </c>
       <c r="K19" s="100"/>
       <c r="L19" s="97" t="str">
-        <f t="shared" si="1"/>
-        <v>FTE-ELCGAS</v>
+        <f t="shared" ref="L19:L26" si="1">"FT"&amp;$G$2&amp;"-"&amp;L5</f>
+        <v>FTE-ELCCOA</v>
       </c>
       <c r="M19" s="98" t="str">
-        <f t="shared" si="2"/>
-        <v>Sector Fuel Technology Existing Electricity Plants Natural Gas</v>
+        <f t="shared" ref="M19:M26" si="2">$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M5</f>
+        <v>Sector Fuel Technology Existing Electricity Plants Solid Fuels</v>
       </c>
       <c r="N19" s="97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N19:N26" si="3">$E$2</f>
         <v>PJ</v>
       </c>
       <c r="O19" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O19:O26" si="4">$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
       <c r="P19" s="97"/>
       <c r="Q19" s="97"/>
       <c r="R19" s="97"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="21" t="str">
         <f>Sector_Fuels_ELC!L20</f>
-        <v>FTE-ELCOIL</v>
+        <v>FTE-ELCGAS</v>
       </c>
       <c r="C20" t="str">
-        <f>'EB1'!G$2</f>
-        <v>DSL</v>
+        <f>RIGHT(D20,3)</f>
+        <v>GAS</v>
       </c>
       <c r="D20" s="21" t="str">
-        <f>L7</f>
-        <v>ELCOIL</v>
-      </c>
-      <c r="E20" s="62">
-        <f>-'EB1'!G$6/-SUM('EB1'!$G$6:$M$6)</f>
-        <v>4.9257354796510562E-2</v>
-      </c>
+        <f>L6</f>
+        <v>ELCGAS</v>
+      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="63">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H20" s="64">
         <v>30</v>
       </c>
-      <c r="J20" s="100"/>
+      <c r="J20" s="97"/>
       <c r="K20" s="100"/>
       <c r="L20" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCOIL</v>
+        <v>FTE-ELCGAS</v>
       </c>
       <c r="M20" s="98" t="str">
         <f t="shared" si="2"/>
-        <v>Sector Fuel Technology Existing Electricity Plants oil</v>
+        <v>Sector Fuel Technology Existing Electricity Plants Natural Gas</v>
       </c>
       <c r="N20" s="97" t="str">
         <f t="shared" si="3"/>
@@ -5353,29 +5442,39 @@
       <c r="Q20" s="97"/>
       <c r="R20" s="97"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="21"/>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B21" s="21" t="str">
+        <f>Sector_Fuels_ELC!L21</f>
+        <v>FTE-ELCOIL</v>
+      </c>
       <c r="C21" t="str">
-        <f>'EB1'!I$2</f>
-        <v>LPG</v>
-      </c>
-      <c r="D21" s="21"/>
+        <f>'EB1'!G$2</f>
+        <v>DSL</v>
+      </c>
+      <c r="D21" s="21" t="str">
+        <f>L7</f>
+        <v>ELCOIL</v>
+      </c>
       <c r="E21" s="62">
-        <f>-'EB1'!I$6/-SUM('EB1'!$G$6:$M$6)</f>
-        <v>3.8926710484734312E-2</v>
+        <f>-'EB1'!G$6/-SUM('EB1'!$G$6:$M$6)</f>
+        <v>4.9257354796510562E-2</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
+      <c r="G21" s="63">
+        <v>1</v>
+      </c>
+      <c r="H21" s="64">
+        <v>30</v>
+      </c>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
       <c r="L21" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCNUC</v>
+        <v>FTE-ELCOIL</v>
       </c>
       <c r="M21" s="98" t="str">
         <f t="shared" si="2"/>
-        <v>Sector Fuel Technology Existing Electricity Plants Nuclear Energy</v>
+        <v>Sector Fuel Technology Existing Electricity Plants oil</v>
       </c>
       <c r="N21" s="97" t="str">
         <f t="shared" si="3"/>
@@ -5389,16 +5488,16 @@
       <c r="Q21" s="97"/>
       <c r="R21" s="97"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="21"/>
       <c r="C22" t="str">
-        <f>'EB1'!L$2</f>
-        <v>HFO</v>
+        <f>'EB1'!I$2</f>
+        <v>LPG</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="62">
-        <f>-'EB1'!L$6/-SUM('EB1'!$G$6:$M$6)</f>
-        <v>0.85705723214511731</v>
+        <f>-'EB1'!I$6/-SUM('EB1'!$G$6:$M$6)</f>
+        <v>3.8926710484734312E-2</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="63"/>
@@ -5407,11 +5506,11 @@
       <c r="K22" s="97"/>
       <c r="L22" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCBIO</v>
+        <v>FTE-ELCNUC</v>
       </c>
       <c r="M22" s="98" t="str">
         <f t="shared" si="2"/>
-        <v>Sector Fuel Technology Existing Electricity Plants Biomass</v>
+        <v>Sector Fuel Technology Existing Electricity Plants Nuclear Energy</v>
       </c>
       <c r="N22" s="97" t="str">
         <f t="shared" si="3"/>
@@ -5425,16 +5524,16 @@
       <c r="Q22" s="97"/>
       <c r="R22" s="97"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="21"/>
       <c r="C23" t="str">
-        <f>'EB1'!M$2</f>
-        <v>OPP</v>
+        <f>'EB1'!L$2</f>
+        <v>HFO</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="62">
-        <f>-'EB1'!M$6/-SUM('EB1'!$G$6:$M$6)</f>
-        <v>5.4758702573637796E-2</v>
+        <f>-'EB1'!L$6/-SUM('EB1'!$G$6:$M$6)</f>
+        <v>0.85705723214511731</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="63"/>
@@ -5443,11 +5542,11 @@
       <c r="K23" s="97"/>
       <c r="L23" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCHYD</v>
+        <v>FTE-ELCBIO</v>
       </c>
       <c r="M23" s="98" t="str">
         <f t="shared" si="2"/>
-        <v>Sector Fuel Technology Existing Electricity Plants Hydro power</v>
+        <v>Sector Fuel Technology Existing Electricity Plants Biomass</v>
       </c>
       <c r="N23" s="97" t="str">
         <f t="shared" si="3"/>
@@ -5461,36 +5560,29 @@
       <c r="Q23" s="97"/>
       <c r="R23" s="97"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="21" t="str">
-        <f>Sector_Fuels_ELC!L21</f>
-        <v>FTE-ELCNUC</v>
-      </c>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B24" s="21"/>
       <c r="C24" t="str">
-        <f>RIGHT(D24,3)</f>
-        <v>NUC</v>
-      </c>
-      <c r="D24" s="21" t="str">
-        <f>L8</f>
-        <v>ELCNUC</v>
-      </c>
-      <c r="E24" s="12"/>
+        <f>'EB1'!M$2</f>
+        <v>OPP</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="62">
+        <f>-'EB1'!M$6/-SUM('EB1'!$G$6:$M$6)</f>
+        <v>5.4758702573637796E-2</v>
+      </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="63">
-        <v>1</v>
-      </c>
-      <c r="H24" s="64">
-        <v>30</v>
-      </c>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
       <c r="J24" s="97"/>
       <c r="K24" s="97"/>
       <c r="L24" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCWIN</v>
+        <v>FTE-ELCHYD</v>
       </c>
       <c r="M24" s="98" t="str">
         <f t="shared" si="2"/>
-        <v>Sector Fuel Technology Existing Electricity Plants Wind energy</v>
+        <v>Sector Fuel Technology Existing Electricity Plants Hydro power</v>
       </c>
       <c r="N24" s="97" t="str">
         <f t="shared" si="3"/>
@@ -5504,18 +5596,18 @@
       <c r="Q24" s="97"/>
       <c r="R24" s="97"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="21" t="str">
         <f>Sector_Fuels_ELC!L22</f>
-        <v>FTE-ELCBIO</v>
+        <v>FTE-ELCNUC</v>
       </c>
       <c r="C25" t="str">
         <f>RIGHT(D25,3)</f>
-        <v>BIO</v>
+        <v>NUC</v>
       </c>
       <c r="D25" s="21" t="str">
-        <f>L9</f>
-        <v>ELCBIO</v>
+        <f>L8</f>
+        <v>ELCNUC</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -5529,11 +5621,11 @@
       <c r="K25" s="97"/>
       <c r="L25" s="97" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCSOL</v>
+        <v>FTE-ELCWIN</v>
       </c>
       <c r="M25" s="98" t="str">
         <f t="shared" si="2"/>
-        <v>Sector Fuel Technology Existing Electricity Plants Solar energy</v>
+        <v>Sector Fuel Technology Existing Electricity Plants Wind energy</v>
       </c>
       <c r="N25" s="97" t="str">
         <f t="shared" si="3"/>
@@ -5547,18 +5639,18 @@
       <c r="Q25" s="97"/>
       <c r="R25" s="97"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="21" t="str">
         <f>Sector_Fuels_ELC!L23</f>
-        <v>FTE-ELCHYD</v>
+        <v>FTE-ELCBIO</v>
       </c>
       <c r="C26" t="str">
         <f>RIGHT(D26,3)</f>
-        <v>HYD</v>
+        <v>BIO</v>
       </c>
       <c r="D26" s="21" t="str">
-        <f>L10</f>
-        <v>ELCHYD</v>
+        <f>L9</f>
+        <v>ELCBIO</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -5568,19 +5660,40 @@
       <c r="H26" s="64">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97" t="str">
+        <f t="shared" si="1"/>
+        <v>FTE-ELCSOL</v>
+      </c>
+      <c r="M26" s="98" t="str">
+        <f t="shared" si="2"/>
+        <v>Sector Fuel Technology Existing Electricity Plants Solar energy</v>
+      </c>
+      <c r="N26" s="97" t="str">
+        <f t="shared" si="3"/>
+        <v>PJ</v>
+      </c>
+      <c r="O26" s="97" t="str">
+        <f t="shared" si="4"/>
+        <v>PJa</v>
+      </c>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="21" t="str">
         <f>Sector_Fuels_ELC!L24</f>
-        <v>FTE-ELCWIN</v>
+        <v>FTE-ELCHYD</v>
       </c>
       <c r="C27" t="str">
         <f>RIGHT(D27,3)</f>
-        <v>WIN</v>
+        <v>HYD</v>
       </c>
       <c r="D27" s="21" t="str">
-        <f>L11</f>
-        <v>ELCWIN</v>
+        <f>L10</f>
+        <v>ELCHYD</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -5591,18 +5704,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="21" t="str">
         <f>Sector_Fuels_ELC!L25</f>
-        <v>FTE-ELCSOL</v>
+        <v>FTE-ELCWIN</v>
       </c>
       <c r="C28" t="str">
         <f>RIGHT(D28,3)</f>
-        <v>SOL</v>
+        <v>WIN</v>
       </c>
       <c r="D28" s="21" t="str">
-        <f>L12</f>
-        <v>ELCSOL</v>
+        <f>L11</f>
+        <v>ELCWIN</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -5613,15 +5726,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="44"/>
-      <c r="C32" s="1" t="s">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B29" s="21" t="str">
+        <f>Sector_Fuels_ELC!L26</f>
+        <v>FTE-ELCSOL</v>
+      </c>
+      <c r="C29" t="str">
+        <f>RIGHT(D29,3)</f>
+        <v>SOL</v>
+      </c>
+      <c r="D29" s="21" t="str">
+        <f>L12</f>
+        <v>ELCSOL</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="63">
+        <v>1</v>
+      </c>
+      <c r="H29" s="64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="44"/>
+      <c r="C33" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="60"/>
-      <c r="C33" s="1" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="60"/>
+      <c r="C34" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5637,45 +5772,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AF65536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.3984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.3984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.86328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1328125" style="21" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.86328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.86328125" style="21" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.265625" style="21" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="43.265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.265625" customWidth="1"/>
+    <col min="29" max="29" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.85546875" style="21"/>
+    <col min="32" max="32" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.86328125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:32" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="20" t="s">
         <v>65</v>
       </c>
@@ -5700,7 +5835,7 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
     </row>
-    <row r="2" spans="2:32" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="str">
         <f>'EB1'!B6</f>
         <v>ELC</v>
@@ -5740,7 +5875,7 @@
       <c r="AE2" s="93"/>
       <c r="AF2" s="93"/>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:32" ht="13.15" x14ac:dyDescent="0.4">
       <c r="X3" s="94" t="s">
         <v>7</v>
       </c>
@@ -5769,7 +5904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:32" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="25" t="s">
         <v>107</v>
       </c>
@@ -5816,7 +5951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="24" t="s">
         <v>113</v>
       </c>
@@ -5860,7 +5995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.35">
       <c r="X6" s="97" t="s">
         <v>88</v>
       </c>
@@ -5882,7 +6017,7 @@
       <c r="AE6" s="97"/>
       <c r="AF6" s="97"/>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" ht="13.15" x14ac:dyDescent="0.4">
       <c r="G7" s="21">
         <v>0.1</v>
       </c>
@@ -5898,7 +6033,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="4" t="s">
         <v>172</v>
       </c>
@@ -5926,7 +6061,7 @@
       <c r="AE8" s="93"/>
       <c r="AF8" s="93"/>
     </row>
-    <row r="9" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
@@ -6017,7 +6152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="15" t="s">
         <v>37</v>
       </c>
@@ -6097,7 +6232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
         <v>76</v>
       </c>
@@ -6158,7 +6293,7 @@
       <c r="AE11" s="96"/>
       <c r="AF11" s="96"/>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="str">
         <f t="shared" ref="B12:B19" si="0">Z12</f>
         <v>ELCTECOA00</v>
@@ -6248,7 +6383,7 @@
       </c>
       <c r="AF12" s="97"/>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCTEGAS00</v>
@@ -6330,7 +6465,7 @@
       <c r="AE13" s="97"/>
       <c r="AF13" s="97"/>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCTEOIL00</v>
@@ -6412,7 +6547,7 @@
       <c r="AE14" s="97"/>
       <c r="AF14" s="97"/>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCNENUC00</v>
@@ -6494,7 +6629,7 @@
       <c r="AE15" s="97"/>
       <c r="AF15" s="97"/>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCREBIO00</v>
@@ -6576,7 +6711,7 @@
       <c r="AE16" s="97"/>
       <c r="AF16" s="97"/>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCREHYD00</v>
@@ -6650,7 +6785,7 @@
       <c r="AE17" s="97"/>
       <c r="AF17" s="97"/>
     </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B18" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCREWIN00</v>
@@ -6732,7 +6867,7 @@
       <c r="AE18" s="97"/>
       <c r="AF18" s="97"/>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCRESOL00</v>
@@ -6812,71 +6947,71 @@
       <c r="AE19" s="97"/>
       <c r="AF19" s="97"/>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.35">
       <c r="V21" s="85"/>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.35">
       <c r="V22" s="85"/>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B23" s="44"/>
       <c r="C23" s="1" t="s">
         <v>144</v>
       </c>
       <c r="V23" s="85"/>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B24" s="60"/>
       <c r="C24" s="1" t="s">
         <v>145</v>
       </c>
       <c r="V24" s="85"/>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.35">
       <c r="G25" s="21" t="s">
         <v>121</v>
       </c>
       <c r="V25" s="85"/>
     </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.35">
       <c r="G26" s="101">
         <v>89.372771062763022</v>
       </c>
     </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.35">
       <c r="G27" s="101">
         <v>41.450437783149788</v>
       </c>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.35">
       <c r="G28" s="101">
         <v>5.710602448742053</v>
       </c>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.35">
       <c r="G29" s="101">
         <v>51.797945205479458</v>
       </c>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.35">
       <c r="G30" s="101">
         <v>7.8023302733384083</v>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.35">
       <c r="G31" s="101"/>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.35">
       <c r="G32" s="101">
         <v>23.908866057838662</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G33" s="101">
         <v>7.1875528496533061</v>
       </c>
     </row>
-    <row r="65536" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="65536" spans="23:23" x14ac:dyDescent="0.35">
       <c r="W65536" s="29"/>
     </row>
   </sheetData>
@@ -6893,12 +7028,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="34" t="s">
         <v>149</v>
       </c>
@@ -6911,7 +7046,7 @@
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -6919,13 +7054,13 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B5" s="32" t="s">
         <v>138</v>
       </c>
       <c r="C5" s="33"/>
     </row>
-    <row r="6" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="37" t="s">
         <v>0</v>
       </c>
@@ -6945,7 +7080,7 @@
       <c r="G6" s="36"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="14" t="s">
         <v>76</v>
       </c>
@@ -6962,7 +7097,7 @@
       <c r="G7" s="79"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="21" t="str">
         <f>Con_ELC!$Z$6</f>
         <v>ELCCO2</v>
@@ -6980,13 +7115,13 @@
       <c r="G8" s="80"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="44"/>
       <c r="C23" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="60"/>
       <c r="C24" s="1" t="s">
         <v>145</v>

--- a/VT_EREG1_ELC_V12.xlsx
+++ b/VT_EREG1_ELC_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08311A06-4785-4325-97A5-4BCDF56E7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48E191E-A1E9-4B6D-B5F9-EDF4D280ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12772" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -24,6 +24,32 @@
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4796,7 +4822,7 @@
   <dimension ref="B1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4987,9 +5013,9 @@
       <c r="R5" s="97"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="80" t="str">
-        <f>D15</f>
-        <v>~FI_T</v>
+      <c r="B6" s="80">
+        <f>D14</f>
+        <v>0</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -5050,9 +5076,9 @@
       <c r="R7" s="97"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="97" t="str">
-        <f>J2</f>
-        <v>~FI_Comm</v>
+      <c r="B8" s="97">
+        <f>J1</f>
+        <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>185</v>

--- a/VT_EREG1_ELC_V12.xlsx
+++ b/VT_EREG1_ELC_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48E191E-A1E9-4B6D-B5F9-EDF4D280ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657D634E-404E-46D0-860F-DB035DFCA5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12772" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -1536,7 +1536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="191">
   <si>
     <t>CommName</t>
   </si>
@@ -1577,9 +1577,6 @@
     <t>Ctype</t>
   </si>
   <si>
-    <t>~FI_T</t>
-  </si>
-  <si>
     <t>~FI_Comm</t>
   </si>
   <si>
@@ -2072,18 +2069,12 @@
     <t>source</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
-    <t>hierarchy</t>
-  </si>
-  <si>
     <t>col</t>
   </si>
   <si>
@@ -2100,6 +2091,24 @@
   </si>
   <si>
     <t>~md_t</t>
+  </si>
+  <si>
+    <t>location2</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>;lkajdflkja;lkdf</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>~FI_T: author = AK; version = v03</t>
+  </si>
+  <si>
+    <t>EFF~2020</t>
   </si>
 </sst>
 </file>
@@ -4151,152 +4160,152 @@
   <sheetData>
     <row r="1" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="X1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="D2" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="S2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="S2" s="40" t="s">
+      <c r="T2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="U2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="40" t="s">
-        <v>48</v>
-      </c>
       <c r="V2" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y2" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C3" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="F3" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="N3" s="41" t="s">
+      <c r="O3" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="S3" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="P3" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q3" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="R3" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="S3" s="41" t="s">
+      <c r="T3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="U3" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="41" t="s">
         <v>53</v>
-      </c>
-      <c r="U3" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="V3" s="41" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B4" s="38"/>
       <c r="C4" s="74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -4320,10 +4329,10 @@
     </row>
     <row r="5" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B5" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>56</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>57</v>
       </c>
       <c r="D5" s="43">
         <v>-37.464700000000001</v>
@@ -4385,10 +4394,10 @@
     </row>
     <row r="6" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="46">
         <v>-6238.7780000000012</v>
@@ -4451,10 +4460,10 @@
     </row>
     <row r="7" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B7" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>60</v>
       </c>
       <c r="D7" s="43">
         <v>-104.9074</v>
@@ -4516,10 +4525,10 @@
     </row>
     <row r="8" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="52" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>62</v>
       </c>
       <c r="D8" s="43">
         <v>0</v>
@@ -4582,7 +4591,7 @@
     <row r="9" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B9" s="38"/>
       <c r="C9" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="50">
         <f>SUM(D5:D8)</f>
@@ -4690,7 +4699,7 @@
     </row>
     <row r="12" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C12" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
@@ -4705,32 +4714,32 @@
     </row>
     <row r="15" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C15" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="E15" s="57" t="s">
         <v>90</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B16" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="53" t="s">
-        <v>93</v>
-      </c>
       <c r="E16" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B17" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="81">
         <v>1</v>
@@ -4740,17 +4749,17 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4778,12 +4787,12 @@
     </row>
     <row r="2" spans="2:13" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="E4" s="103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="104"/>
       <c r="G4" s="104"/>
@@ -4796,7 +4805,7 @@
     </row>
     <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E5" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="70"/>
       <c r="G5" s="70"/>
@@ -4821,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4833,7 +4842,7 @@
     <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.53125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="2.1328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.3984375" customWidth="1"/>
@@ -4849,22 +4858,22 @@
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H1" s="31"/>
     </row>
@@ -4878,7 +4887,7 @@
         <v>Electricity Plants</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="10" t="str">
         <f>'EB1'!Z2</f>
@@ -4889,11 +4898,11 @@
         <v>M€2005</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="9"/>
       <c r="J2" s="92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="92"/>
       <c r="L2" s="93"/>
@@ -4909,7 +4918,7 @@
         <v>7</v>
       </c>
       <c r="K3" s="95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="94" t="s">
         <v>0</v>
@@ -4935,64 +4944,64 @@
     </row>
     <row r="4" spans="2:18" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="G4" s="9"/>
       <c r="J4" s="96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="96" t="s">
         <v>26</v>
-      </c>
-      <c r="M4" s="96" t="s">
-        <v>27</v>
       </c>
       <c r="N4" s="96" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="96" t="s">
-        <v>39</v>
-      </c>
       <c r="Q4" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="96" t="s">
         <v>28</v>
-      </c>
-      <c r="R4" s="96" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
         <v>175</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="G5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>181</v>
+      <c r="H5" t="s">
+        <v>174</v>
       </c>
       <c r="J5" s="97" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="97"/>
       <c r="L5" s="97" t="str">
@@ -5013,15 +5022,16 @@
       <c r="R5" s="97"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="80">
-        <f>D14</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="12"/>
+      <c r="B6" s="80" t="str">
+        <f>D15</f>
+        <v>~FI_T: author = AK; version = v03</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="11" t="s">
-        <v>185</v>
+      <c r="G6" s="68" t="s">
+        <v>187</v>
       </c>
       <c r="J6" s="97"/>
       <c r="K6" s="97"/>
@@ -5047,14 +5057,13 @@
         <f>G20</f>
         <v>0.9</v>
       </c>
-      <c r="C7" s="102">
-        <v>45414</v>
-      </c>
-      <c r="E7" s="12"/>
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
       <c r="F7" s="12"/>
       <c r="G7" s="68"/>
-      <c r="H7" t="s">
-        <v>184</v>
+      <c r="H7" s="102">
+        <v>45414</v>
       </c>
       <c r="J7" s="97"/>
       <c r="K7" s="97"/>
@@ -5076,12 +5085,12 @@
       <c r="R7" s="97"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="97">
-        <f>J1</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>185</v>
+      <c r="B8" s="97" t="str">
+        <f>J3</f>
+        <v>Csets</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="J8" s="97"/>
       <c r="K8" s="97"/>
@@ -5107,12 +5116,11 @@
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="D9" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="F9" s="12"/>
       <c r="G9" s="68"/>
-      <c r="H9" s="11" t="s">
-        <v>182</v>
-      </c>
       <c r="J9" s="97"/>
       <c r="K9" s="97"/>
       <c r="L9" s="97" t="str">
@@ -5137,12 +5145,11 @@
         <f>B21</f>
         <v>FTE-ELCOIL</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="D10" s="11" t="s">
+        <v>180</v>
+      </c>
       <c r="F10" s="12"/>
       <c r="G10" s="68"/>
-      <c r="H10" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="J10" s="97"/>
       <c r="K10" s="97"/>
       <c r="L10" s="97" t="str">
@@ -5163,16 +5170,19 @@
       <c r="R10" s="97"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="97" t="str">
-        <f>L19</f>
-        <v>FTE-ELCCOA</v>
-      </c>
-      <c r="E11" s="12"/>
+      <c r="B11">
+        <f>G26</f>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f>H28</f>
+        <v>30</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="68"/>
-      <c r="H11" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="J11" s="97"/>
       <c r="K11" s="97"/>
       <c r="L11" s="97" t="str">
@@ -5193,6 +5203,13 @@
       <c r="R11" s="97"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B12" t="str">
+        <f>G16</f>
+        <v>EFF~2020</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="68"/>
@@ -5237,12 +5254,12 @@
     </row>
     <row r="15" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="J15" s="92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K15" s="92"/>
       <c r="L15" s="97"/>
@@ -5264,22 +5281,22 @@
         <v>6</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="H16" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="94" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" s="94" t="s">
         <v>1</v>
@@ -5288,74 +5305,74 @@
         <v>2</v>
       </c>
       <c r="N16" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="94" t="s">
+      <c r="P16" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="94" t="s">
+      <c r="Q16" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="94" t="s">
+      <c r="R16" s="94" t="s">
         <v>19</v>
-      </c>
-      <c r="R16" s="94" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="G17" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J17" s="96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" s="96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="96" t="s">
+      <c r="N17" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="96" t="s">
+      <c r="O17" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="96" t="s">
+      <c r="P17" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="96" t="s">
         <v>24</v>
-      </c>
-      <c r="P17" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="96" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -5366,10 +5383,10 @@
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18" s="99"/>
       <c r="L18" s="99"/>
@@ -5402,7 +5419,7 @@
         <v>30</v>
       </c>
       <c r="J19" s="93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K19" s="100"/>
       <c r="L19" s="97" t="str">
@@ -5777,13 +5794,13 @@
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="44"/>
       <c r="C33" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="60"/>
       <c r="C34" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5798,9 +5815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AF65536"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5838,25 +5853,25 @@
   <sheetData>
     <row r="1" spans="2:32" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
@@ -5871,26 +5886,26 @@
         <v>Electricity Plants</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="10" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="10" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="X2" s="92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y2" s="92"/>
       <c r="Z2" s="93"/>
@@ -5906,7 +5921,7 @@
         <v>7</v>
       </c>
       <c r="Y3" s="95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z3" s="94" t="s">
         <v>0</v>
@@ -5932,72 +5947,72 @@
     </row>
     <row r="4" spans="2:32" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="O4" s="9"/>
       <c r="X4" s="96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="96" t="s">
         <v>26</v>
-      </c>
-      <c r="AA4" s="96" t="s">
-        <v>27</v>
       </c>
       <c r="AB4" s="96" t="s">
         <v>4</v>
       </c>
       <c r="AC4" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="96" t="s">
-        <v>39</v>
-      </c>
       <c r="AE4" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF4" s="96" t="s">
         <v>28</v>
-      </c>
-      <c r="AF4" s="96" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="O5" s="9"/>
       <c r="X5" s="93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y5" s="97"/>
       <c r="Z5" s="93" t="str">
@@ -6014,16 +6029,16 @@
       </c>
       <c r="AC5" s="93"/>
       <c r="AD5" s="93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE5" s="93"/>
       <c r="AF5" s="93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.35">
       <c r="X6" s="97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y6" s="97"/>
       <c r="Z6" s="97" t="str">
@@ -6061,7 +6076,7 @@
     </row>
     <row r="8" spans="2:32" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -6076,7 +6091,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="3"/>
       <c r="X8" s="92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y8" s="92"/>
       <c r="Z8" s="93"/>
@@ -6098,63 +6113,63 @@
         <v>6</v>
       </c>
       <c r="E9" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>164</v>
-      </c>
       <c r="G9" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="I9" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="J9" s="71" t="s">
         <v>169</v>
-      </c>
-      <c r="J9" s="71" t="s">
-        <v>170</v>
       </c>
       <c r="K9" s="71">
         <v>2030</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M9" s="71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N9" s="71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O9" s="71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R9" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S9" s="71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T9" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U9" s="23"/>
       <c r="V9" s="88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W9" s="27"/>
       <c r="X9" s="94" t="s">
         <v>11</v>
       </c>
       <c r="Y9" s="95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z9" s="94" t="s">
         <v>1</v>
@@ -6163,104 +6178,104 @@
         <v>2</v>
       </c>
       <c r="AB9" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC9" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AC9" s="94" t="s">
+      <c r="AD9" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AD9" s="94" t="s">
+      <c r="AE9" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AE9" s="94" t="s">
+      <c r="AF9" s="94" t="s">
         <v>19</v>
-      </c>
-      <c r="AF9" s="94" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:32" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N10" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="S10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="R10" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="T10" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V10" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W10" s="28"/>
       <c r="X10" s="96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y10" s="96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z10" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="AA10" s="96" t="s">
+      <c r="AB10" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="AB10" s="96" t="s">
+      <c r="AC10" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="AC10" s="96" t="s">
+      <c r="AD10" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE10" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF10" s="96" t="s">
         <v>24</v>
-      </c>
-      <c r="AD10" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE10" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF10" s="96" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -6296,7 +6311,7 @@
         <v>M€2005/PJ</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S11" s="13" t="str">
         <f>$E$2&amp;"/"&amp;$F$2</f>
@@ -6304,11 +6319,11 @@
       </c>
       <c r="T11" s="13"/>
       <c r="V11" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W11" s="28"/>
       <c r="X11" s="96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y11" s="96"/>
       <c r="Z11" s="96"/>
@@ -6382,7 +6397,7 @@
       </c>
       <c r="W12" s="87"/>
       <c r="X12" s="97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y12" s="97"/>
       <c r="Z12" s="97" t="str">
@@ -6402,10 +6417,10 @@
         <v>GW</v>
       </c>
       <c r="AD12" s="93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE12" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF12" s="97"/>
     </row>
@@ -6650,7 +6665,7 @@
         <v>GW</v>
       </c>
       <c r="AD15" s="93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE15" s="97"/>
       <c r="AF15" s="97"/>
@@ -6982,20 +6997,20 @@
     <row r="23" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B23" s="44"/>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V23" s="85"/>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B24" s="60"/>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V24" s="85"/>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.35">
       <c r="G25" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V25" s="85"/>
     </row>
@@ -7052,7 +7067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7061,7 +7076,7 @@
   <sheetData>
     <row r="3" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -7082,7 +7097,7 @@
     </row>
     <row r="5" spans="2:10" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B5" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="33"/>
     </row>
@@ -7108,16 +7123,16 @@
     </row>
     <row r="7" spans="2:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="79"/>
@@ -7144,13 +7159,13 @@
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="44"/>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="60"/>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
